--- a/Fullstack Learning Path.xlsx
+++ b/Fullstack Learning Path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latihan_Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F654CEF-D577-4FBF-BEC1-C8F6317A390E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6CC4ED-5DF7-4419-8AAE-49A553758E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="1488">
   <si>
     <t>Kode Referensi</t>
   </si>
@@ -19203,9 +19203,6 @@
     <t>https://www.hackerrank.com/domains/sql?badge_type=sql</t>
   </si>
   <si>
-    <t>Minimal Easy</t>
-  </si>
-  <si>
     <t>SQLAlchemy</t>
   </si>
   <si>
@@ -19231,6 +19228,18 @@
   </si>
   <si>
     <t>Acuan</t>
+  </si>
+  <si>
+    <t>Minimal Bintang 3</t>
+  </si>
+  <si>
+    <t>Git &amp; Github</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lTMZxWMjXQU&amp;list=PLFIM0718LjIVknj6sgsSceMqlq242-jNf</t>
+  </si>
+  <si>
+    <t>Minimal Sampai Episode 8</t>
   </si>
 </sst>
 </file>
@@ -19420,7 +19429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -19611,12 +19620,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -19789,31 +19835,46 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -19827,38 +19888,35 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -20188,10 +20246,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="75" t="s">
         <v>890</v>
       </c>
-      <c r="B9" s="68">
+      <c r="B9" s="75">
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -20203,35 +20261,35 @@
       <c r="E9" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83" t="s">
+      <c r="F9" s="78"/>
+      <c r="G9" s="79" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="11"/>
       <c r="D10" s="3" t="s">
         <v>894</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="70"/>
-      <c r="B11" s="69"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="11"/>
       <c r="D11" s="3" t="s">
         <v>895</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="70"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="27">
         <v>2</v>
       </c>
@@ -20248,7 +20306,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="70"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="27">
         <v>3</v>
       </c>
@@ -20265,7 +20323,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="70"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="27">
         <v>4</v>
       </c>
@@ -20282,7 +20340,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="69"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="27">
         <v>5</v>
       </c>
@@ -20299,10 +20357,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="75">
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -20320,8 +20378,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="60">
-      <c r="A17" s="70"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="11"/>
       <c r="D17" s="3" t="s">
         <v>902</v>
@@ -20333,7 +20391,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="195">
-      <c r="A18" s="70"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="27">
         <v>2</v>
       </c>
@@ -20350,7 +20408,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="45">
-      <c r="A19" s="70"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="27">
         <v>3</v>
       </c>
@@ -20365,8 +20423,8 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="45">
-      <c r="A20" s="70"/>
-      <c r="B20" s="68">
+      <c r="A20" s="76"/>
+      <c r="B20" s="75">
         <v>4</v>
       </c>
       <c r="C20" s="15"/>
@@ -20382,8 +20440,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="11"/>
       <c r="D21" s="3" t="s">
         <v>912</v>
@@ -20395,8 +20453,8 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="11"/>
       <c r="D22" s="3" t="s">
         <v>914</v>
@@ -22548,10 +22606,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="75">
         <v>5</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -22568,8 +22626,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="11"/>
       <c r="D11" s="3" t="s">
         <v>25</v>
@@ -22580,8 +22638,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="11"/>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -22594,10 +22652,10 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="75" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="11"/>
@@ -22610,8 +22668,8 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="11"/>
       <c r="D14" s="3" t="s">
         <v>34</v>
@@ -22622,8 +22680,8 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="70"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12" t="s">
         <v>36</v>
@@ -22634,8 +22692,8 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="70"/>
-      <c r="B16" s="68" t="s">
+      <c r="A16" s="76"/>
+      <c r="B16" s="75" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="11"/>
@@ -22648,8 +22706,8 @@
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="11"/>
       <c r="D17" s="3" t="s">
         <v>40</v>
@@ -22660,8 +22718,8 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="60">
-      <c r="A18" s="70"/>
-      <c r="B18" s="69"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="11"/>
       <c r="D18" s="3" t="s">
         <v>42</v>
@@ -22672,8 +22730,8 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="60">
-      <c r="A19" s="70"/>
-      <c r="B19" s="68">
+      <c r="A19" s="76"/>
+      <c r="B19" s="75">
         <v>5</v>
       </c>
       <c r="C19" s="15"/>
@@ -22686,8 +22744,8 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="60">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
         <v>46</v>
@@ -22736,10 +22794,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="72.75" customHeight="1">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="68">
+      <c r="B24" s="75">
         <v>1</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -22754,8 +22812,8 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="69"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="11"/>
       <c r="D25" s="2" t="s">
         <v>59</v>
@@ -22766,7 +22824,7 @@
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6" ht="97.5" customHeight="1">
-      <c r="A26" s="70"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="27">
         <v>2</v>
       </c>
@@ -22782,7 +22840,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="86.25" customHeight="1">
-      <c r="A27" s="70"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="27">
         <v>3</v>
       </c>
@@ -22798,8 +22856,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="85.5" customHeight="1">
-      <c r="A28" s="70"/>
-      <c r="B28" s="68" t="s">
+      <c r="A28" s="76"/>
+      <c r="B28" s="75" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="11"/>
@@ -22812,8 +22870,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="44.25" customHeight="1">
-      <c r="A29" s="69"/>
-      <c r="B29" s="69"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
       <c r="C29" s="24"/>
       <c r="D29" s="28" t="s">
         <v>70</v>
@@ -25014,306 +25072,320 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFBAC39-17DE-42CB-8E6C-2A5E96397647}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="84"/>
-    <col min="2" max="2" width="28.140625" style="84" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="84" customWidth="1"/>
-    <col min="4" max="4" width="28" style="84" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="84"/>
+    <col min="1" max="1" width="9.140625" style="68"/>
+    <col min="2" max="2" width="28.140625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="68" customWidth="1"/>
+    <col min="4" max="4" width="28" style="68" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="69" t="s">
         <v>1438</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="69" t="s">
         <v>1439</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="69" t="s">
         <v>917</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="69" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="86">
+      <c r="A2" s="81">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="71" t="s">
         <v>881</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="72" t="s">
         <v>1441</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="86"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88" t="s">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="71" t="s">
         <v>1443</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="74" t="s">
         <v>1471</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="85">
+      <c r="A4" s="69">
         <v>2</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="72" t="s">
         <v>1440</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="71" t="s">
         <v>888</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="72" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="85">
+      <c r="A5" s="69">
         <v>3</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="72" t="s">
         <v>1444</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="73" t="s">
         <v>1445</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="72" t="s">
         <v>1447</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="85">
+      <c r="A6" s="69">
         <v>4</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="72" t="s">
         <v>1448</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="73" t="s">
         <v>1449</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="72" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="86">
+      <c r="A7" s="81">
         <v>5</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="82" t="s">
         <v>1451</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="73" t="s">
         <v>1452</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="72" t="s">
         <v>1453</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="90" t="s">
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="73" t="s">
         <v>1454</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="72" t="s">
         <v>1455</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="86">
+      <c r="A9" s="70">
         <v>6</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="72" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="94">
+        <v>7</v>
+      </c>
+      <c r="B10" s="82" t="s">
         <v>1456</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C10" s="73" t="s">
         <v>1457</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D10" s="72" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="86"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="90" t="s">
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="95"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="73" t="s">
         <v>1459</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D11" s="72" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30">
-      <c r="A11" s="86">
-        <v>7</v>
-      </c>
-      <c r="B11" s="87" t="s">
+    <row r="12" spans="1:4" ht="30">
+      <c r="A12" s="94">
+        <v>8</v>
+      </c>
+      <c r="B12" s="82" t="s">
         <v>1461</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C12" s="73" t="s">
         <v>1462</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D12" s="80" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30">
-      <c r="A12" s="86"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="90" t="s">
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="96"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="73" t="s">
         <v>1463</v>
       </c>
-      <c r="D12" s="87"/>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="86"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="90" t="s">
+      <c r="D13" s="82"/>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="96"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="73" t="s">
         <v>1464</v>
       </c>
-      <c r="D13" s="87"/>
-    </row>
-    <row r="14" spans="1:4" ht="45">
-      <c r="A14" s="86"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="90" t="s">
+      <c r="D14" s="82"/>
+    </row>
+    <row r="15" spans="1:4" ht="45">
+      <c r="A15" s="95"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="73" t="s">
         <v>1465</v>
       </c>
-      <c r="D14" s="87"/>
-    </row>
-    <row r="15" spans="1:4" ht="30">
-      <c r="A15" s="85">
-        <v>8</v>
-      </c>
-      <c r="B15" s="92" t="s">
+      <c r="D15" s="82"/>
+    </row>
+    <row r="16" spans="1:4" ht="30">
+      <c r="A16" s="70">
+        <v>9</v>
+      </c>
+      <c r="B16" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C16" s="73" t="s">
         <v>1467</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D16" s="74" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30">
-      <c r="A16" s="86">
-        <v>9</v>
-      </c>
-      <c r="B16" s="91" t="s">
+    <row r="17" spans="1:4" ht="30">
+      <c r="A17" s="94">
+        <v>10</v>
+      </c>
+      <c r="B17" s="80" t="s">
         <v>460</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C17" s="73" t="s">
         <v>1469</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D17" s="74" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="86"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="90" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="95"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="73" t="s">
         <v>1470</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D18" s="74" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30">
-      <c r="A18" s="85">
-        <v>10</v>
-      </c>
-      <c r="B18" s="92" t="s">
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" s="70">
+        <v>11</v>
+      </c>
+      <c r="B19" s="74" t="s">
         <v>1473</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C19" s="73" t="s">
         <v>1474</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D19" s="74" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30">
+      <c r="A20" s="70">
+        <v>12</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30">
+      <c r="A21" s="94">
+        <v>13</v>
+      </c>
+      <c r="B21" s="80" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="30">
-      <c r="A19" s="85">
-        <v>11</v>
-      </c>
-      <c r="B19" s="92" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C19" s="90" t="s">
+      <c r="C21" s="73" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30">
+      <c r="A22" s="95"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="73" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30">
+      <c r="A23" s="70">
+        <v>14</v>
+      </c>
+      <c r="B23" s="74" t="s">
         <v>1482</v>
       </c>
-      <c r="D19" s="92" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30">
-      <c r="A20" s="86">
-        <v>12</v>
-      </c>
-      <c r="B20" s="91" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C20" s="90" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D20" s="92" t="s">
+      <c r="C23" s="73" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="30">
-      <c r="A21" s="86"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="90" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30">
-      <c r="A22" s="85">
-        <v>13</v>
-      </c>
-      <c r="B22" s="92" t="s">
+      <c r="D23" s="74" t="s">
         <v>1483</v>
-      </c>
-      <c r="C22" s="90" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D22" s="92" t="s">
-        <v>1484</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{DF94C0B2-7424-43EA-96E1-44451EE97183}"/>
@@ -25321,24 +25393,25 @@
     <hyperlink ref="C5" r:id="rId3" xr:uid="{CA9FB058-CA2A-4F20-9F25-AECCEC676FCB}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{C27C3699-6BC1-4696-8019-42248F43CF59}"/>
     <hyperlink ref="C8" r:id="rId5" xr:uid="{46B4B71E-6B2B-4E55-BEEA-2FFA59216A4A}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{FB47E7F8-3204-4A3F-8BB5-480357B90B4B}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{E83A7C9F-4415-40DB-8329-20AA62C8362D}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{556415B4-9720-4C7A-81A3-BBB3C920B2C2}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{37361D1C-D1BB-43CE-9BA6-3C28204281DE}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{CC069A54-E705-4C97-8EBE-5F4A0112BE22}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{655F376B-12E3-4BBE-9E7C-EBBCB91FED21}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{BF6EBE88-533B-4DE8-84EB-EFADA36F0392}"/>
-    <hyperlink ref="C16" r:id="rId13" xr:uid="{F71943EA-6267-4828-894A-714DE75270DF}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{FA5BDFB3-19C5-4F5B-8EA1-9E00169C4616}"/>
-    <hyperlink ref="C18" r:id="rId15" xr:uid="{45B70854-4B54-45D2-ABF1-C210A00DB9E2}"/>
-    <hyperlink ref="C20" r:id="rId16" xr:uid="{6D7D47C1-A444-4A4B-9300-5C633311CFDC}"/>
-    <hyperlink ref="C21" r:id="rId17" xr:uid="{0F21F118-4412-43AF-B28A-B4EE39FD849E}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{1DA50116-44BD-4A67-B7A6-21770A6D1512}"/>
-    <hyperlink ref="C22" r:id="rId19" xr:uid="{0CF4423D-8DD4-46F2-929E-398AC5FBDF08}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{FB47E7F8-3204-4A3F-8BB5-480357B90B4B}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{E83A7C9F-4415-40DB-8329-20AA62C8362D}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{556415B4-9720-4C7A-81A3-BBB3C920B2C2}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{37361D1C-D1BB-43CE-9BA6-3C28204281DE}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{CC069A54-E705-4C97-8EBE-5F4A0112BE22}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{655F376B-12E3-4BBE-9E7C-EBBCB91FED21}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{BF6EBE88-533B-4DE8-84EB-EFADA36F0392}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{F71943EA-6267-4828-894A-714DE75270DF}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{FA5BDFB3-19C5-4F5B-8EA1-9E00169C4616}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{45B70854-4B54-45D2-ABF1-C210A00DB9E2}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{6D7D47C1-A444-4A4B-9300-5C633311CFDC}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{0F21F118-4412-43AF-B28A-B4EE39FD849E}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{1DA50116-44BD-4A67-B7A6-21770A6D1512}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{0CF4423D-8DD4-46F2-929E-398AC5FBDF08}"/>
     <hyperlink ref="C7" r:id="rId20" xr:uid="{A441428F-298C-4A70-AA4C-5C460FB48EB2}"/>
+    <hyperlink ref="C9" r:id="rId21" xr:uid="{E2F87EC2-9339-4DA3-9C14-0D46BA32FE31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -25462,7 +25535,7 @@
       <c r="Z3" s="39"/>
     </row>
     <row r="4" spans="1:26" ht="24">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="83" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="41" t="s">
@@ -25498,7 +25571,7 @@
       <c r="Z4" s="39"/>
     </row>
     <row r="5" spans="1:26" ht="36">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="43" t="s">
         <v>88</v>
       </c>
@@ -25532,7 +25605,7 @@
       <c r="Z5" s="39"/>
     </row>
     <row r="6" spans="1:26" ht="36">
-      <c r="A6" s="79"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="43" t="s">
         <v>90</v>
       </c>
@@ -25566,7 +25639,7 @@
       <c r="Z6" s="39"/>
     </row>
     <row r="7" spans="1:26" ht="36">
-      <c r="A7" s="79"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="43" t="s">
         <v>92</v>
       </c>
@@ -25600,7 +25673,7 @@
       <c r="Z7" s="39"/>
     </row>
     <row r="8" spans="1:26" ht="24">
-      <c r="A8" s="80"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="43" t="s">
         <v>94</v>
       </c>
@@ -25634,7 +25707,7 @@
       <c r="Z8" s="39"/>
     </row>
     <row r="9" spans="1:26" ht="60">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="83" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="43" t="s">
@@ -25670,7 +25743,7 @@
       <c r="Z9" s="39"/>
     </row>
     <row r="10" spans="1:26" ht="60">
-      <c r="A10" s="79"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="43" t="s">
         <v>100</v>
       </c>
@@ -25704,7 +25777,7 @@
       <c r="Z10" s="39"/>
     </row>
     <row r="11" spans="1:26" ht="36">
-      <c r="A11" s="79"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="43" t="s">
         <v>101</v>
       </c>
@@ -25738,7 +25811,7 @@
       <c r="Z11" s="39"/>
     </row>
     <row r="12" spans="1:26" ht="60">
-      <c r="A12" s="79"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="43" t="s">
         <v>103</v>
       </c>
@@ -25772,7 +25845,7 @@
       <c r="Z12" s="39"/>
     </row>
     <row r="13" spans="1:26" ht="36">
-      <c r="A13" s="79"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="43" t="s">
         <v>105</v>
       </c>
@@ -25806,7 +25879,7 @@
       <c r="Z13" s="39"/>
     </row>
     <row r="14" spans="1:26" ht="36">
-      <c r="A14" s="80"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="43" t="s">
         <v>107</v>
       </c>
@@ -25876,7 +25949,7 @@
       <c r="Z15" s="39"/>
     </row>
     <row r="16" spans="1:26" ht="36">
-      <c r="A16" s="78"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="43" t="s">
         <v>112</v>
       </c>
@@ -25910,7 +25983,7 @@
       <c r="Z16" s="39"/>
     </row>
     <row r="17" spans="1:26" ht="24">
-      <c r="A17" s="79"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="43" t="s">
         <v>114</v>
       </c>
@@ -25944,7 +26017,7 @@
       <c r="Z17" s="39"/>
     </row>
     <row r="18" spans="1:26" ht="24">
-      <c r="A18" s="79"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="43" t="s">
         <v>116</v>
       </c>
@@ -25978,7 +26051,7 @@
       <c r="Z18" s="39"/>
     </row>
     <row r="19" spans="1:26" ht="24">
-      <c r="A19" s="79"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="43" t="s">
         <v>118</v>
       </c>
@@ -26012,7 +26085,7 @@
       <c r="Z19" s="39"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="79"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="43" t="s">
         <v>120</v>
       </c>
@@ -26046,7 +26119,7 @@
       <c r="Z20" s="39"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="79"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="43" t="s">
         <v>122</v>
       </c>
@@ -26080,7 +26153,7 @@
       <c r="Z21" s="39"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="80"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="43" t="s">
         <v>124</v>
       </c>
@@ -26182,7 +26255,7 @@
       <c r="Z24" s="39"/>
     </row>
     <row r="25" spans="1:26" ht="24">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="83" t="s">
         <v>129</v>
       </c>
       <c r="B25" s="43" t="s">
@@ -26218,7 +26291,7 @@
       <c r="Z25" s="39"/>
     </row>
     <row r="26" spans="1:26" ht="36">
-      <c r="A26" s="79"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="44" t="s">
         <v>132</v>
       </c>
@@ -26252,7 +26325,7 @@
       <c r="Z26" s="39"/>
     </row>
     <row r="27" spans="1:26" ht="72">
-      <c r="A27" s="79"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="43" t="s">
         <v>134</v>
       </c>
@@ -26286,7 +26359,7 @@
       <c r="Z27" s="39"/>
     </row>
     <row r="28" spans="1:26" ht="48">
-      <c r="A28" s="79"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="44" t="s">
         <v>135</v>
       </c>
@@ -26320,7 +26393,7 @@
       <c r="Z28" s="39"/>
     </row>
     <row r="29" spans="1:26" ht="84">
-      <c r="A29" s="79"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="43" t="s">
         <v>137</v>
       </c>
@@ -26354,7 +26427,7 @@
       <c r="Z29" s="39"/>
     </row>
     <row r="30" spans="1:26" ht="48">
-      <c r="A30" s="79"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="43" t="s">
         <v>139</v>
       </c>
@@ -26388,7 +26461,7 @@
       <c r="Z30" s="39"/>
     </row>
     <row r="31" spans="1:26" ht="84">
-      <c r="A31" s="79"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="44" t="s">
         <v>124</v>
       </c>
@@ -26422,7 +26495,7 @@
       <c r="Z31" s="39"/>
     </row>
     <row r="32" spans="1:26" ht="48">
-      <c r="A32" s="79"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="44" t="s">
         <v>142</v>
       </c>
@@ -26456,7 +26529,7 @@
       <c r="Z32" s="39"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="79"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="44" t="s">
         <v>143</v>
       </c>
@@ -26490,7 +26563,7 @@
       <c r="Z33" s="39"/>
     </row>
     <row r="34" spans="1:26" ht="36">
-      <c r="A34" s="79"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="44" t="s">
         <v>145</v>
       </c>
@@ -26524,7 +26597,7 @@
       <c r="Z34" s="39"/>
     </row>
     <row r="35" spans="1:26" ht="48">
-      <c r="A35" s="79"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="43" t="s">
         <v>147</v>
       </c>
@@ -26558,7 +26631,7 @@
       <c r="Z35" s="39"/>
     </row>
     <row r="36" spans="1:26" ht="48">
-      <c r="A36" s="79"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="44" t="s">
         <v>149</v>
       </c>
@@ -26592,7 +26665,7 @@
       <c r="Z36" s="39"/>
     </row>
     <row r="37" spans="1:26" ht="36">
-      <c r="A37" s="79"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="43" t="s">
         <v>151</v>
       </c>
@@ -26626,7 +26699,7 @@
       <c r="Z37" s="39"/>
     </row>
     <row r="38" spans="1:26" ht="72">
-      <c r="A38" s="79"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="44" t="s">
         <v>153</v>
       </c>
@@ -26660,7 +26733,7 @@
       <c r="Z38" s="39"/>
     </row>
     <row r="39" spans="1:26" ht="24">
-      <c r="A39" s="79"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="43" t="s">
         <v>155</v>
       </c>
@@ -26694,7 +26767,7 @@
       <c r="Z39" s="39"/>
     </row>
     <row r="40" spans="1:26" ht="36">
-      <c r="A40" s="79"/>
+      <c r="A40" s="84"/>
       <c r="B40" s="43" t="s">
         <v>157</v>
       </c>
@@ -26728,7 +26801,7 @@
       <c r="Z40" s="39"/>
     </row>
     <row r="41" spans="1:26" ht="24">
-      <c r="A41" s="79"/>
+      <c r="A41" s="84"/>
       <c r="B41" s="43" t="s">
         <v>159</v>
       </c>
@@ -26762,7 +26835,7 @@
       <c r="Z41" s="39"/>
     </row>
     <row r="42" spans="1:26" ht="24">
-      <c r="A42" s="79"/>
+      <c r="A42" s="84"/>
       <c r="B42" s="43" t="s">
         <v>161</v>
       </c>
@@ -26796,7 +26869,7 @@
       <c r="Z42" s="39"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="80"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="43" t="s">
         <v>163</v>
       </c>
@@ -26830,7 +26903,7 @@
       <c r="Z43" s="39"/>
     </row>
     <row r="44" spans="1:26" ht="108">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="83" t="s">
         <v>165</v>
       </c>
       <c r="B44" s="44" t="s">
@@ -26866,7 +26939,7 @@
       <c r="Z44" s="39"/>
     </row>
     <row r="45" spans="1:26" ht="60">
-      <c r="A45" s="79"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="44" t="s">
         <v>168</v>
       </c>
@@ -26900,7 +26973,7 @@
       <c r="Z45" s="39"/>
     </row>
     <row r="46" spans="1:26" ht="312">
-      <c r="A46" s="79"/>
+      <c r="A46" s="84"/>
       <c r="B46" s="43" t="s">
         <v>170</v>
       </c>
@@ -26934,7 +27007,7 @@
       <c r="Z46" s="39"/>
     </row>
     <row r="47" spans="1:26" ht="409.5">
-      <c r="A47" s="79"/>
+      <c r="A47" s="84"/>
       <c r="B47" s="43" t="s">
         <v>172</v>
       </c>
@@ -26968,7 +27041,7 @@
       <c r="Z47" s="39"/>
     </row>
     <row r="48" spans="1:26" ht="409.5">
-      <c r="A48" s="79"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="43" t="s">
         <v>173</v>
       </c>
@@ -27002,7 +27075,7 @@
       <c r="Z48" s="39"/>
     </row>
     <row r="49" spans="1:26" ht="240">
-      <c r="A49" s="79"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="43" t="s">
         <v>174</v>
       </c>
@@ -27036,7 +27109,7 @@
       <c r="Z49" s="39"/>
     </row>
     <row r="50" spans="1:26" ht="240">
-      <c r="A50" s="80"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="43" t="s">
         <v>118</v>
       </c>
@@ -27070,7 +27143,7 @@
       <c r="Z50" s="39"/>
     </row>
     <row r="51" spans="1:26" ht="36">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="83" t="s">
         <v>177</v>
       </c>
       <c r="B51" s="43" t="s">
@@ -27106,7 +27179,7 @@
       <c r="Z51" s="39"/>
     </row>
     <row r="52" spans="1:26" ht="36">
-      <c r="A52" s="79"/>
+      <c r="A52" s="84"/>
       <c r="B52" s="43" t="s">
         <v>180</v>
       </c>
@@ -27140,7 +27213,7 @@
       <c r="Z52" s="39"/>
     </row>
     <row r="53" spans="1:26" ht="120">
-      <c r="A53" s="79"/>
+      <c r="A53" s="84"/>
       <c r="B53" s="43" t="s">
         <v>183</v>
       </c>
@@ -27174,7 +27247,7 @@
       <c r="Z53" s="39"/>
     </row>
     <row r="54" spans="1:26" ht="216">
-      <c r="A54" s="79"/>
+      <c r="A54" s="84"/>
       <c r="B54" s="43" t="s">
         <v>184</v>
       </c>
@@ -27208,7 +27281,7 @@
       <c r="Z54" s="39"/>
     </row>
     <row r="55" spans="1:26" ht="144">
-      <c r="A55" s="79"/>
+      <c r="A55" s="84"/>
       <c r="B55" s="43" t="s">
         <v>185</v>
       </c>
@@ -27242,7 +27315,7 @@
       <c r="Z55" s="39"/>
     </row>
     <row r="56" spans="1:26" ht="228">
-      <c r="A56" s="79"/>
+      <c r="A56" s="84"/>
       <c r="B56" s="43" t="s">
         <v>186</v>
       </c>
@@ -27276,7 +27349,7 @@
       <c r="Z56" s="39"/>
     </row>
     <row r="57" spans="1:26" ht="180">
-      <c r="A57" s="79"/>
+      <c r="A57" s="84"/>
       <c r="B57" s="43" t="s">
         <v>187</v>
       </c>
@@ -27310,7 +27383,7 @@
       <c r="Z57" s="39"/>
     </row>
     <row r="58" spans="1:26" ht="84">
-      <c r="A58" s="79"/>
+      <c r="A58" s="84"/>
       <c r="B58" s="43" t="s">
         <v>188</v>
       </c>
@@ -27344,7 +27417,7 @@
       <c r="Z58" s="39"/>
     </row>
     <row r="59" spans="1:26" ht="72">
-      <c r="A59" s="79"/>
+      <c r="A59" s="84"/>
       <c r="B59" s="43" t="s">
         <v>189</v>
       </c>
@@ -27378,7 +27451,7 @@
       <c r="Z59" s="39"/>
     </row>
     <row r="60" spans="1:26" ht="120">
-      <c r="A60" s="79"/>
+      <c r="A60" s="84"/>
       <c r="B60" s="43" t="s">
         <v>191</v>
       </c>
@@ -27412,7 +27485,7 @@
       <c r="Z60" s="39"/>
     </row>
     <row r="61" spans="1:26" ht="264">
-      <c r="A61" s="79"/>
+      <c r="A61" s="84"/>
       <c r="B61" s="43" t="s">
         <v>193</v>
       </c>
@@ -27446,7 +27519,7 @@
       <c r="Z61" s="39"/>
     </row>
     <row r="62" spans="1:26" ht="120">
-      <c r="A62" s="79"/>
+      <c r="A62" s="84"/>
       <c r="B62" s="43" t="s">
         <v>194</v>
       </c>
@@ -27480,7 +27553,7 @@
       <c r="Z62" s="39"/>
     </row>
     <row r="63" spans="1:26" ht="288">
-      <c r="A63" s="79"/>
+      <c r="A63" s="84"/>
       <c r="B63" s="43" t="s">
         <v>195</v>
       </c>
@@ -27514,7 +27587,7 @@
       <c r="Z63" s="39"/>
     </row>
     <row r="64" spans="1:26" ht="84">
-      <c r="A64" s="80"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="43" t="s">
         <v>196</v>
       </c>
@@ -27616,7 +27689,7 @@
       <c r="Z66" s="39"/>
     </row>
     <row r="67" spans="1:26" ht="72">
-      <c r="A67" s="78" t="s">
+      <c r="A67" s="83" t="s">
         <v>199</v>
       </c>
       <c r="B67" s="43" t="s">
@@ -27652,7 +27725,7 @@
       <c r="Z67" s="39"/>
     </row>
     <row r="68" spans="1:26" ht="264">
-      <c r="A68" s="79"/>
+      <c r="A68" s="84"/>
       <c r="B68" s="43" t="s">
         <v>202</v>
       </c>
@@ -27686,7 +27759,7 @@
       <c r="Z68" s="39"/>
     </row>
     <row r="69" spans="1:26" ht="409.5">
-      <c r="A69" s="79"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="43" t="s">
         <v>203</v>
       </c>
@@ -27720,7 +27793,7 @@
       <c r="Z69" s="39"/>
     </row>
     <row r="70" spans="1:26" ht="372">
-      <c r="A70" s="80"/>
+      <c r="A70" s="85"/>
       <c r="B70" s="43" t="s">
         <v>204</v>
       </c>
@@ -27892,7 +27965,7 @@
       <c r="Z74" s="39"/>
     </row>
     <row r="75" spans="1:26" ht="60">
-      <c r="A75" s="78" t="s">
+      <c r="A75" s="83" t="s">
         <v>211</v>
       </c>
       <c r="B75" s="43" t="s">
@@ -27928,7 +28001,7 @@
       <c r="Z75" s="39"/>
     </row>
     <row r="76" spans="1:26" ht="60">
-      <c r="A76" s="79"/>
+      <c r="A76" s="84"/>
       <c r="B76" s="43" t="s">
         <v>211</v>
       </c>
@@ -27962,7 +28035,7 @@
       <c r="Z76" s="39"/>
     </row>
     <row r="77" spans="1:26" ht="72">
-      <c r="A77" s="79"/>
+      <c r="A77" s="84"/>
       <c r="B77" s="43" t="s">
         <v>215</v>
       </c>
@@ -27996,7 +28069,7 @@
       <c r="Z77" s="39"/>
     </row>
     <row r="78" spans="1:26" ht="48">
-      <c r="A78" s="79"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="43" t="s">
         <v>217</v>
       </c>
@@ -28030,7 +28103,7 @@
       <c r="Z78" s="39"/>
     </row>
     <row r="79" spans="1:26" ht="60">
-      <c r="A79" s="79"/>
+      <c r="A79" s="84"/>
       <c r="B79" s="43" t="s">
         <v>219</v>
       </c>
@@ -28064,7 +28137,7 @@
       <c r="Z79" s="39"/>
     </row>
     <row r="80" spans="1:26" ht="144">
-      <c r="A80" s="79"/>
+      <c r="A80" s="84"/>
       <c r="B80" s="43" t="s">
         <v>221</v>
       </c>
@@ -28098,7 +28171,7 @@
       <c r="Z80" s="39"/>
     </row>
     <row r="81" spans="1:26" ht="48">
-      <c r="A81" s="79"/>
+      <c r="A81" s="84"/>
       <c r="B81" s="43" t="s">
         <v>223</v>
       </c>
@@ -28132,7 +28205,7 @@
       <c r="Z81" s="39"/>
     </row>
     <row r="82" spans="1:26" ht="348">
-      <c r="A82" s="80"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="43" t="s">
         <v>225</v>
       </c>
@@ -28166,7 +28239,7 @@
       <c r="Z82" s="39"/>
     </row>
     <row r="83" spans="1:26" ht="84">
-      <c r="A83" s="78" t="s">
+      <c r="A83" s="83" t="s">
         <v>227</v>
       </c>
       <c r="B83" s="43" t="s">
@@ -28202,7 +28275,7 @@
       <c r="Z83" s="39"/>
     </row>
     <row r="84" spans="1:26" ht="96">
-      <c r="A84" s="79"/>
+      <c r="A84" s="84"/>
       <c r="B84" s="43" t="s">
         <v>230</v>
       </c>
@@ -28236,7 +28309,7 @@
       <c r="Z84" s="39"/>
     </row>
     <row r="85" spans="1:26" ht="36">
-      <c r="A85" s="79"/>
+      <c r="A85" s="84"/>
       <c r="B85" s="43" t="s">
         <v>232</v>
       </c>
@@ -28268,7 +28341,7 @@
       <c r="Z85" s="39"/>
     </row>
     <row r="86" spans="1:26" ht="24">
-      <c r="A86" s="79"/>
+      <c r="A86" s="84"/>
       <c r="B86" s="43" t="s">
         <v>233</v>
       </c>
@@ -28300,7 +28373,7 @@
       <c r="Z86" s="39"/>
     </row>
     <row r="87" spans="1:26" ht="192">
-      <c r="A87" s="79"/>
+      <c r="A87" s="84"/>
       <c r="B87" s="43" t="s">
         <v>234</v>
       </c>
@@ -28334,7 +28407,7 @@
       <c r="Z87" s="39"/>
     </row>
     <row r="88" spans="1:26" ht="60">
-      <c r="A88" s="79"/>
+      <c r="A88" s="84"/>
       <c r="B88" s="43" t="s">
         <v>235</v>
       </c>
@@ -28368,7 +28441,7 @@
       <c r="Z88" s="39"/>
     </row>
     <row r="89" spans="1:26" ht="84">
-      <c r="A89" s="79"/>
+      <c r="A89" s="84"/>
       <c r="B89" s="43" t="s">
         <v>237</v>
       </c>
@@ -28402,7 +28475,7 @@
       <c r="Z89" s="39"/>
     </row>
     <row r="90" spans="1:26" ht="36">
-      <c r="A90" s="79"/>
+      <c r="A90" s="84"/>
       <c r="B90" s="43" t="s">
         <v>239</v>
       </c>
@@ -28436,7 +28509,7 @@
       <c r="Z90" s="39"/>
     </row>
     <row r="91" spans="1:26" ht="72">
-      <c r="A91" s="79"/>
+      <c r="A91" s="84"/>
       <c r="B91" s="43" t="s">
         <v>241</v>
       </c>
@@ -28470,7 +28543,7 @@
       <c r="Z91" s="39"/>
     </row>
     <row r="92" spans="1:26" ht="180">
-      <c r="A92" s="79"/>
+      <c r="A92" s="84"/>
       <c r="B92" s="43" t="s">
         <v>243</v>
       </c>
@@ -28504,7 +28577,7 @@
       <c r="Z92" s="39"/>
     </row>
     <row r="93" spans="1:26" ht="36">
-      <c r="A93" s="79"/>
+      <c r="A93" s="84"/>
       <c r="B93" s="46" t="s">
         <v>244</v>
       </c>
@@ -28536,7 +28609,7 @@
       <c r="Z93" s="39"/>
     </row>
     <row r="94" spans="1:26" ht="72">
-      <c r="A94" s="79"/>
+      <c r="A94" s="84"/>
       <c r="B94" s="46" t="s">
         <v>245</v>
       </c>
@@ -28570,7 +28643,7 @@
       <c r="Z94" s="39"/>
     </row>
     <row r="95" spans="1:26" ht="240">
-      <c r="A95" s="79"/>
+      <c r="A95" s="84"/>
       <c r="B95" s="46" t="s">
         <v>247</v>
       </c>
@@ -28604,7 +28677,7 @@
       <c r="Z95" s="39"/>
     </row>
     <row r="96" spans="1:26" ht="96">
-      <c r="A96" s="79"/>
+      <c r="A96" s="84"/>
       <c r="B96" s="46" t="s">
         <v>249</v>
       </c>
@@ -28638,7 +28711,7 @@
       <c r="Z96" s="39"/>
     </row>
     <row r="97" spans="1:26" ht="144">
-      <c r="A97" s="79"/>
+      <c r="A97" s="84"/>
       <c r="B97" s="46" t="s">
         <v>251</v>
       </c>
@@ -28672,7 +28745,7 @@
       <c r="Z97" s="39"/>
     </row>
     <row r="98" spans="1:26" ht="36">
-      <c r="A98" s="79"/>
+      <c r="A98" s="84"/>
       <c r="B98" s="46" t="s">
         <v>253</v>
       </c>
@@ -28706,7 +28779,7 @@
       <c r="Z98" s="39"/>
     </row>
     <row r="99" spans="1:26" ht="409.5">
-      <c r="A99" s="79"/>
+      <c r="A99" s="84"/>
       <c r="B99" s="46" t="s">
         <v>255</v>
       </c>
@@ -28740,7 +28813,7 @@
       <c r="Z99" s="39"/>
     </row>
     <row r="100" spans="1:26" ht="228">
-      <c r="A100" s="80"/>
+      <c r="A100" s="85"/>
       <c r="B100" s="46" t="s">
         <v>256</v>
       </c>
@@ -28774,7 +28847,7 @@
       <c r="Z100" s="39"/>
     </row>
     <row r="101" spans="1:26" ht="96">
-      <c r="A101" s="78" t="s">
+      <c r="A101" s="83" t="s">
         <v>258</v>
       </c>
       <c r="B101" s="43" t="s">
@@ -28810,7 +28883,7 @@
       <c r="Z101" s="39"/>
     </row>
     <row r="102" spans="1:26" ht="84">
-      <c r="A102" s="79"/>
+      <c r="A102" s="84"/>
       <c r="B102" s="43" t="s">
         <v>260</v>
       </c>
@@ -28844,7 +28917,7 @@
       <c r="Z102" s="39"/>
     </row>
     <row r="103" spans="1:26" ht="84">
-      <c r="A103" s="79"/>
+      <c r="A103" s="84"/>
       <c r="B103" s="43" t="s">
         <v>262</v>
       </c>
@@ -28878,7 +28951,7 @@
       <c r="Z103" s="39"/>
     </row>
     <row r="104" spans="1:26" ht="60">
-      <c r="A104" s="79"/>
+      <c r="A104" s="84"/>
       <c r="B104" s="43" t="s">
         <v>263</v>
       </c>
@@ -28912,7 +28985,7 @@
       <c r="Z104" s="39"/>
     </row>
     <row r="105" spans="1:26" ht="96">
-      <c r="A105" s="79"/>
+      <c r="A105" s="84"/>
       <c r="B105" s="43" t="s">
         <v>265</v>
       </c>
@@ -28946,7 +29019,7 @@
       <c r="Z105" s="39"/>
     </row>
     <row r="106" spans="1:26" ht="48">
-      <c r="A106" s="79"/>
+      <c r="A106" s="84"/>
       <c r="B106" s="43" t="s">
         <v>267</v>
       </c>
@@ -28980,7 +29053,7 @@
       <c r="Z106" s="39"/>
     </row>
     <row r="107" spans="1:26" ht="60">
-      <c r="A107" s="79"/>
+      <c r="A107" s="84"/>
       <c r="B107" s="43" t="s">
         <v>269</v>
       </c>
@@ -29014,7 +29087,7 @@
       <c r="Z107" s="39"/>
     </row>
     <row r="108" spans="1:26" ht="108">
-      <c r="A108" s="79"/>
+      <c r="A108" s="84"/>
       <c r="B108" s="43" t="s">
         <v>271</v>
       </c>
@@ -29048,7 +29121,7 @@
       <c r="Z108" s="39"/>
     </row>
     <row r="109" spans="1:26" ht="60">
-      <c r="A109" s="80"/>
+      <c r="A109" s="85"/>
       <c r="B109" s="43" t="s">
         <v>273</v>
       </c>
@@ -29082,7 +29155,7 @@
       <c r="Z109" s="39"/>
     </row>
     <row r="110" spans="1:26" ht="36">
-      <c r="A110" s="78" t="s">
+      <c r="A110" s="83" t="s">
         <v>21</v>
       </c>
       <c r="B110" s="43" t="s">
@@ -29118,7 +29191,7 @@
       <c r="Z110" s="39"/>
     </row>
     <row r="111" spans="1:26" ht="36">
-      <c r="A111" s="79"/>
+      <c r="A111" s="84"/>
       <c r="B111" s="43" t="s">
         <v>277</v>
       </c>
@@ -29152,7 +29225,7 @@
       <c r="Z111" s="39"/>
     </row>
     <row r="112" spans="1:26" ht="36">
-      <c r="A112" s="79"/>
+      <c r="A112" s="84"/>
       <c r="B112" s="43" t="s">
         <v>279</v>
       </c>
@@ -29186,7 +29259,7 @@
       <c r="Z112" s="39"/>
     </row>
     <row r="113" spans="1:26" ht="36">
-      <c r="A113" s="79"/>
+      <c r="A113" s="84"/>
       <c r="B113" s="43" t="s">
         <v>281</v>
       </c>
@@ -29220,7 +29293,7 @@
       <c r="Z113" s="39"/>
     </row>
     <row r="114" spans="1:26" ht="36">
-      <c r="A114" s="79"/>
+      <c r="A114" s="84"/>
       <c r="B114" s="43" t="s">
         <v>283</v>
       </c>
@@ -29254,7 +29327,7 @@
       <c r="Z114" s="39"/>
     </row>
     <row r="115" spans="1:26" ht="36">
-      <c r="A115" s="79"/>
+      <c r="A115" s="84"/>
       <c r="B115" s="43" t="s">
         <v>285</v>
       </c>
@@ -29288,7 +29361,7 @@
       <c r="Z115" s="39"/>
     </row>
     <row r="116" spans="1:26" ht="36">
-      <c r="A116" s="79"/>
+      <c r="A116" s="84"/>
       <c r="B116" s="43" t="s">
         <v>56</v>
       </c>
@@ -29322,7 +29395,7 @@
       <c r="Z116" s="39"/>
     </row>
     <row r="117" spans="1:26" ht="36">
-      <c r="A117" s="79"/>
+      <c r="A117" s="84"/>
       <c r="B117" s="43" t="s">
         <v>288</v>
       </c>
@@ -29356,7 +29429,7 @@
       <c r="Z117" s="39"/>
     </row>
     <row r="118" spans="1:26" ht="36">
-      <c r="A118" s="80"/>
+      <c r="A118" s="85"/>
       <c r="B118" s="43" t="s">
         <v>290</v>
       </c>
@@ -29426,7 +29499,7 @@
       <c r="Z119" s="39"/>
     </row>
     <row r="120" spans="1:26" ht="36">
-      <c r="A120" s="78" t="s">
+      <c r="A120" s="83" t="s">
         <v>294</v>
       </c>
       <c r="B120" s="43" t="s">
@@ -29460,7 +29533,7 @@
       <c r="Z120" s="39"/>
     </row>
     <row r="121" spans="1:26" ht="84">
-      <c r="A121" s="79"/>
+      <c r="A121" s="84"/>
       <c r="B121" s="43" t="s">
         <v>296</v>
       </c>
@@ -29494,7 +29567,7 @@
       <c r="Z121" s="39"/>
     </row>
     <row r="122" spans="1:26" ht="84">
-      <c r="A122" s="79"/>
+      <c r="A122" s="84"/>
       <c r="B122" s="43" t="s">
         <v>298</v>
       </c>
@@ -29526,7 +29599,7 @@
       <c r="Z122" s="39"/>
     </row>
     <row r="123" spans="1:26" ht="48">
-      <c r="A123" s="79"/>
+      <c r="A123" s="84"/>
       <c r="B123" s="43" t="s">
         <v>299</v>
       </c>
@@ -29560,7 +29633,7 @@
       <c r="Z123" s="39"/>
     </row>
     <row r="124" spans="1:26" ht="180">
-      <c r="A124" s="79"/>
+      <c r="A124" s="84"/>
       <c r="B124" s="43" t="s">
         <v>301</v>
       </c>
@@ -29594,7 +29667,7 @@
       <c r="Z124" s="39"/>
     </row>
     <row r="125" spans="1:26" ht="60">
-      <c r="A125" s="79"/>
+      <c r="A125" s="84"/>
       <c r="B125" s="43" t="s">
         <v>302</v>
       </c>
@@ -29628,7 +29701,7 @@
       <c r="Z125" s="39"/>
     </row>
     <row r="126" spans="1:26" ht="24">
-      <c r="A126" s="79"/>
+      <c r="A126" s="84"/>
       <c r="B126" s="43" t="s">
         <v>303</v>
       </c>
@@ -29662,7 +29735,7 @@
       <c r="Z126" s="39"/>
     </row>
     <row r="127" spans="1:26" ht="36">
-      <c r="A127" s="79"/>
+      <c r="A127" s="84"/>
       <c r="B127" s="43" t="s">
         <v>305</v>
       </c>
@@ -29696,7 +29769,7 @@
       <c r="Z127" s="39"/>
     </row>
     <row r="128" spans="1:26" ht="48">
-      <c r="A128" s="80"/>
+      <c r="A128" s="85"/>
       <c r="B128" s="43" t="s">
         <v>307</v>
       </c>
@@ -29730,7 +29803,7 @@
       <c r="Z128" s="39"/>
     </row>
     <row r="129" spans="1:26" ht="180">
-      <c r="A129" s="78" t="s">
+      <c r="A129" s="83" t="s">
         <v>309</v>
       </c>
       <c r="B129" s="43" t="s">
@@ -29766,7 +29839,7 @@
       <c r="Z129" s="39"/>
     </row>
     <row r="130" spans="1:26" ht="120">
-      <c r="A130" s="79"/>
+      <c r="A130" s="84"/>
       <c r="B130" s="43" t="s">
         <v>312</v>
       </c>
@@ -29800,7 +29873,7 @@
       <c r="Z130" s="39"/>
     </row>
     <row r="131" spans="1:26" ht="144">
-      <c r="A131" s="79"/>
+      <c r="A131" s="84"/>
       <c r="B131" s="43" t="s">
         <v>314</v>
       </c>
@@ -29834,7 +29907,7 @@
       <c r="Z131" s="39"/>
     </row>
     <row r="132" spans="1:26" ht="96">
-      <c r="A132" s="79"/>
+      <c r="A132" s="84"/>
       <c r="B132" s="43" t="s">
         <v>316</v>
       </c>
@@ -29868,7 +29941,7 @@
       <c r="Z132" s="39"/>
     </row>
     <row r="133" spans="1:26">
-      <c r="A133" s="79"/>
+      <c r="A133" s="84"/>
       <c r="B133" s="43" t="s">
         <v>318</v>
       </c>
@@ -29902,7 +29975,7 @@
       <c r="Z133" s="39"/>
     </row>
     <row r="134" spans="1:26">
-      <c r="A134" s="79"/>
+      <c r="A134" s="84"/>
       <c r="B134" s="43" t="s">
         <v>320</v>
       </c>
@@ -29936,7 +30009,7 @@
       <c r="Z134" s="39"/>
     </row>
     <row r="135" spans="1:26" ht="24">
-      <c r="A135" s="79"/>
+      <c r="A135" s="84"/>
       <c r="B135" s="43" t="s">
         <v>322</v>
       </c>
@@ -29970,7 +30043,7 @@
       <c r="Z135" s="39"/>
     </row>
     <row r="136" spans="1:26" ht="36">
-      <c r="A136" s="80"/>
+      <c r="A136" s="85"/>
       <c r="B136" s="43" t="s">
         <v>324</v>
       </c>
@@ -30002,7 +30075,7 @@
       <c r="Z136" s="39"/>
     </row>
     <row r="137" spans="1:26" ht="72">
-      <c r="A137" s="78" t="s">
+      <c r="A137" s="83" t="s">
         <v>325</v>
       </c>
       <c r="B137" s="43" t="s">
@@ -30036,7 +30109,7 @@
       <c r="Z137" s="39"/>
     </row>
     <row r="138" spans="1:26" ht="36">
-      <c r="A138" s="79"/>
+      <c r="A138" s="84"/>
       <c r="B138" s="43" t="s">
         <v>326</v>
       </c>
@@ -30068,7 +30141,7 @@
       <c r="Z138" s="39"/>
     </row>
     <row r="139" spans="1:26" ht="24">
-      <c r="A139" s="79"/>
+      <c r="A139" s="84"/>
       <c r="B139" s="43" t="s">
         <v>327</v>
       </c>
@@ -30100,7 +30173,7 @@
       <c r="Z139" s="39"/>
     </row>
     <row r="140" spans="1:26" ht="24">
-      <c r="A140" s="79"/>
+      <c r="A140" s="84"/>
       <c r="B140" s="43" t="s">
         <v>328</v>
       </c>
@@ -30132,7 +30205,7 @@
       <c r="Z140" s="39"/>
     </row>
     <row r="141" spans="1:26" ht="24">
-      <c r="A141" s="79"/>
+      <c r="A141" s="84"/>
       <c r="B141" s="43" t="s">
         <v>329</v>
       </c>
@@ -30164,7 +30237,7 @@
       <c r="Z141" s="39"/>
     </row>
     <row r="142" spans="1:26" ht="36">
-      <c r="A142" s="79"/>
+      <c r="A142" s="84"/>
       <c r="B142" s="43" t="s">
         <v>330</v>
       </c>
@@ -30196,7 +30269,7 @@
       <c r="Z142" s="39"/>
     </row>
     <row r="143" spans="1:26" ht="24">
-      <c r="A143" s="79"/>
+      <c r="A143" s="84"/>
       <c r="B143" s="43" t="s">
         <v>331</v>
       </c>
@@ -30228,7 +30301,7 @@
       <c r="Z143" s="39"/>
     </row>
     <row r="144" spans="1:26" ht="24">
-      <c r="A144" s="80"/>
+      <c r="A144" s="85"/>
       <c r="B144" s="43" t="s">
         <v>332</v>
       </c>
@@ -30260,7 +30333,7 @@
       <c r="Z144" s="39"/>
     </row>
     <row r="145" spans="1:26" ht="48">
-      <c r="A145" s="78" t="s">
+      <c r="A145" s="83" t="s">
         <v>333</v>
       </c>
       <c r="B145" s="43" t="s">
@@ -30296,7 +30369,7 @@
       <c r="Z145" s="39"/>
     </row>
     <row r="146" spans="1:26" ht="84">
-      <c r="A146" s="79"/>
+      <c r="A146" s="84"/>
       <c r="B146" s="43" t="s">
         <v>335</v>
       </c>
@@ -30330,7 +30403,7 @@
       <c r="Z146" s="39"/>
     </row>
     <row r="147" spans="1:26" ht="48">
-      <c r="A147" s="79"/>
+      <c r="A147" s="84"/>
       <c r="B147" s="43" t="s">
         <v>336</v>
       </c>
@@ -30364,7 +30437,7 @@
       <c r="Z147" s="39"/>
     </row>
     <row r="148" spans="1:26" ht="24">
-      <c r="A148" s="79"/>
+      <c r="A148" s="84"/>
       <c r="B148" s="43" t="s">
         <v>337</v>
       </c>
@@ -30396,7 +30469,7 @@
       <c r="Z148" s="39"/>
     </row>
     <row r="149" spans="1:26" ht="384">
-      <c r="A149" s="79"/>
+      <c r="A149" s="84"/>
       <c r="B149" s="43" t="s">
         <v>339</v>
       </c>
@@ -30430,7 +30503,7 @@
       <c r="Z149" s="39"/>
     </row>
     <row r="150" spans="1:26" ht="240">
-      <c r="A150" s="80"/>
+      <c r="A150" s="85"/>
       <c r="B150" s="43" t="s">
         <v>341</v>
       </c>
@@ -30462,7 +30535,7 @@
       <c r="Z150" s="39"/>
     </row>
     <row r="151" spans="1:26" ht="409.5">
-      <c r="A151" s="78" t="s">
+      <c r="A151" s="83" t="s">
         <v>342</v>
       </c>
       <c r="B151" s="43" t="s">
@@ -30498,7 +30571,7 @@
       <c r="Z151" s="39"/>
     </row>
     <row r="152" spans="1:26" ht="409.5">
-      <c r="A152" s="80"/>
+      <c r="A152" s="85"/>
       <c r="B152" s="43" t="s">
         <v>344</v>
       </c>
@@ -30532,7 +30605,7 @@
       <c r="Z152" s="39"/>
     </row>
     <row r="153" spans="1:26" ht="240">
-      <c r="A153" s="78" t="s">
+      <c r="A153" s="83" t="s">
         <v>346</v>
       </c>
       <c r="B153" s="43" t="s">
@@ -30568,7 +30641,7 @@
       <c r="Z153" s="39"/>
     </row>
     <row r="154" spans="1:26" ht="180">
-      <c r="A154" s="79"/>
+      <c r="A154" s="84"/>
       <c r="B154" s="43" t="s">
         <v>349</v>
       </c>
@@ -30602,7 +30675,7 @@
       <c r="Z154" s="39"/>
     </row>
     <row r="155" spans="1:26" ht="288">
-      <c r="A155" s="79"/>
+      <c r="A155" s="84"/>
       <c r="B155" s="43" t="s">
         <v>351</v>
       </c>
@@ -30636,7 +30709,7 @@
       <c r="Z155" s="39"/>
     </row>
     <row r="156" spans="1:26" ht="324">
-      <c r="A156" s="79"/>
+      <c r="A156" s="84"/>
       <c r="B156" s="43" t="s">
         <v>353</v>
       </c>
@@ -30670,7 +30743,7 @@
       <c r="Z156" s="39"/>
     </row>
     <row r="157" spans="1:26" ht="120">
-      <c r="A157" s="80"/>
+      <c r="A157" s="85"/>
       <c r="B157" s="43" t="s">
         <v>355</v>
       </c>
@@ -30704,7 +30777,7 @@
       <c r="Z157" s="39"/>
     </row>
     <row r="158" spans="1:26" ht="72">
-      <c r="A158" s="78" t="s">
+      <c r="A158" s="83" t="s">
         <v>357</v>
       </c>
       <c r="B158" s="43" t="s">
@@ -30740,7 +30813,7 @@
       <c r="Z158" s="39"/>
     </row>
     <row r="159" spans="1:26">
-      <c r="A159" s="79"/>
+      <c r="A159" s="84"/>
       <c r="B159" s="43" t="s">
         <v>357</v>
       </c>
@@ -30774,7 +30847,7 @@
       <c r="Z159" s="39"/>
     </row>
     <row r="160" spans="1:26" ht="60">
-      <c r="A160" s="79"/>
+      <c r="A160" s="84"/>
       <c r="B160" s="43" t="s">
         <v>362</v>
       </c>
@@ -30808,7 +30881,7 @@
       <c r="Z160" s="39"/>
     </row>
     <row r="161" spans="1:26" ht="144">
-      <c r="A161" s="79"/>
+      <c r="A161" s="84"/>
       <c r="B161" s="43" t="s">
         <v>364</v>
       </c>
@@ -30842,7 +30915,7 @@
       <c r="Z161" s="39"/>
     </row>
     <row r="162" spans="1:26" ht="180">
-      <c r="A162" s="79"/>
+      <c r="A162" s="84"/>
       <c r="B162" s="43" t="s">
         <v>366</v>
       </c>
@@ -30876,7 +30949,7 @@
       <c r="Z162" s="39"/>
     </row>
     <row r="163" spans="1:26" ht="96">
-      <c r="A163" s="79"/>
+      <c r="A163" s="84"/>
       <c r="B163" s="43" t="s">
         <v>368</v>
       </c>
@@ -30910,7 +30983,7 @@
       <c r="Z163" s="39"/>
     </row>
     <row r="164" spans="1:26" ht="72">
-      <c r="A164" s="79"/>
+      <c r="A164" s="84"/>
       <c r="B164" s="43" t="s">
         <v>370</v>
       </c>
@@ -30944,7 +31017,7 @@
       <c r="Z164" s="39"/>
     </row>
     <row r="165" spans="1:26" ht="84">
-      <c r="A165" s="79"/>
+      <c r="A165" s="84"/>
       <c r="B165" s="43" t="s">
         <v>372</v>
       </c>
@@ -30978,7 +31051,7 @@
       <c r="Z165" s="39"/>
     </row>
     <row r="166" spans="1:26" ht="120">
-      <c r="A166" s="79"/>
+      <c r="A166" s="84"/>
       <c r="B166" s="43" t="s">
         <v>374</v>
       </c>
@@ -31012,7 +31085,7 @@
       <c r="Z166" s="39"/>
     </row>
     <row r="167" spans="1:26" ht="96">
-      <c r="A167" s="79"/>
+      <c r="A167" s="84"/>
       <c r="B167" s="43" t="s">
         <v>376</v>
       </c>
@@ -31046,7 +31119,7 @@
       <c r="Z167" s="39"/>
     </row>
     <row r="168" spans="1:26" ht="60">
-      <c r="A168" s="79"/>
+      <c r="A168" s="84"/>
       <c r="B168" s="43" t="s">
         <v>378</v>
       </c>
@@ -31080,7 +31153,7 @@
       <c r="Z168" s="39"/>
     </row>
     <row r="169" spans="1:26" ht="72">
-      <c r="A169" s="79"/>
+      <c r="A169" s="84"/>
       <c r="B169" s="43" t="s">
         <v>380</v>
       </c>
@@ -31114,7 +31187,7 @@
       <c r="Z169" s="39"/>
     </row>
     <row r="170" spans="1:26" ht="72">
-      <c r="A170" s="80"/>
+      <c r="A170" s="85"/>
       <c r="B170" s="43" t="s">
         <v>382</v>
       </c>
@@ -31182,7 +31255,7 @@
       <c r="Z171" s="39"/>
     </row>
     <row r="172" spans="1:26" ht="60">
-      <c r="A172" s="78" t="s">
+      <c r="A172" s="83" t="s">
         <v>386</v>
       </c>
       <c r="B172" s="43" t="s">
@@ -31218,7 +31291,7 @@
       <c r="Z172" s="39"/>
     </row>
     <row r="173" spans="1:26" ht="108">
-      <c r="A173" s="79"/>
+      <c r="A173" s="84"/>
       <c r="B173" s="43" t="s">
         <v>388</v>
       </c>
@@ -31252,7 +31325,7 @@
       <c r="Z173" s="39"/>
     </row>
     <row r="174" spans="1:26" ht="312">
-      <c r="A174" s="80"/>
+      <c r="A174" s="85"/>
       <c r="B174" s="43" t="s">
         <v>312</v>
       </c>
@@ -31286,7 +31359,7 @@
       <c r="Z174" s="39"/>
     </row>
     <row r="175" spans="1:26" ht="48">
-      <c r="A175" s="78" t="s">
+      <c r="A175" s="83" t="s">
         <v>391</v>
       </c>
       <c r="B175" s="43" t="s">
@@ -31320,7 +31393,7 @@
       <c r="Z175" s="39"/>
     </row>
     <row r="176" spans="1:26" ht="24">
-      <c r="A176" s="79"/>
+      <c r="A176" s="84"/>
       <c r="B176" s="43" t="s">
         <v>393</v>
       </c>
@@ -31354,7 +31427,7 @@
       <c r="Z176" s="39"/>
     </row>
     <row r="177" spans="1:26" ht="36">
-      <c r="A177" s="79"/>
+      <c r="A177" s="84"/>
       <c r="B177" s="43" t="s">
         <v>395</v>
       </c>
@@ -31388,7 +31461,7 @@
       <c r="Z177" s="39"/>
     </row>
     <row r="178" spans="1:26" ht="36">
-      <c r="A178" s="79"/>
+      <c r="A178" s="84"/>
       <c r="B178" s="43" t="s">
         <v>397</v>
       </c>
@@ -31422,7 +31495,7 @@
       <c r="Z178" s="39"/>
     </row>
     <row r="179" spans="1:26" ht="204">
-      <c r="A179" s="80"/>
+      <c r="A179" s="85"/>
       <c r="B179" s="43" t="s">
         <v>399</v>
       </c>
@@ -31456,7 +31529,7 @@
       <c r="Z179" s="39"/>
     </row>
     <row r="180" spans="1:26" ht="72">
-      <c r="A180" s="81" t="s">
+      <c r="A180" s="86" t="s">
         <v>52</v>
       </c>
       <c r="B180" s="43" t="s">
@@ -31492,7 +31565,7 @@
       <c r="Z180" s="39"/>
     </row>
     <row r="181" spans="1:26" ht="36">
-      <c r="A181" s="79"/>
+      <c r="A181" s="84"/>
       <c r="B181" s="43" t="s">
         <v>401</v>
       </c>
@@ -31524,7 +31597,7 @@
       <c r="Z181" s="39"/>
     </row>
     <row r="182" spans="1:26" ht="48">
-      <c r="A182" s="79"/>
+      <c r="A182" s="84"/>
       <c r="B182" s="43" t="s">
         <v>402</v>
       </c>
@@ -31556,7 +31629,7 @@
       <c r="Z182" s="39"/>
     </row>
     <row r="183" spans="1:26" ht="48">
-      <c r="A183" s="79"/>
+      <c r="A183" s="84"/>
       <c r="B183" s="43" t="s">
         <v>403</v>
       </c>
@@ -31588,7 +31661,7 @@
       <c r="Z183" s="39"/>
     </row>
     <row r="184" spans="1:26" ht="60">
-      <c r="A184" s="79"/>
+      <c r="A184" s="84"/>
       <c r="B184" s="43" t="s">
         <v>404</v>
       </c>
@@ -31620,7 +31693,7 @@
       <c r="Z184" s="39"/>
     </row>
     <row r="185" spans="1:26" ht="48">
-      <c r="A185" s="79"/>
+      <c r="A185" s="84"/>
       <c r="B185" s="43" t="s">
         <v>405</v>
       </c>
@@ -31652,7 +31725,7 @@
       <c r="Z185" s="39"/>
     </row>
     <row r="186" spans="1:26" ht="60">
-      <c r="A186" s="79"/>
+      <c r="A186" s="84"/>
       <c r="B186" s="43" t="s">
         <v>406</v>
       </c>
@@ -31684,7 +31757,7 @@
       <c r="Z186" s="39"/>
     </row>
     <row r="187" spans="1:26" ht="48">
-      <c r="A187" s="80"/>
+      <c r="A187" s="85"/>
       <c r="B187" s="43" t="s">
         <v>407</v>
       </c>
@@ -31716,7 +31789,7 @@
       <c r="Z187" s="39"/>
     </row>
     <row r="188" spans="1:26" ht="96">
-      <c r="A188" s="78" t="s">
+      <c r="A188" s="83" t="s">
         <v>56</v>
       </c>
       <c r="B188" s="43" t="s">
@@ -31752,7 +31825,7 @@
       <c r="Z188" s="39"/>
     </row>
     <row r="189" spans="1:26" ht="36">
-      <c r="A189" s="79"/>
+      <c r="A189" s="84"/>
       <c r="B189" s="43" t="s">
         <v>409</v>
       </c>
@@ -31786,7 +31859,7 @@
       <c r="Z189" s="39"/>
     </row>
     <row r="190" spans="1:26" ht="24">
-      <c r="A190" s="79"/>
+      <c r="A190" s="84"/>
       <c r="B190" s="43" t="s">
         <v>165</v>
       </c>
@@ -31820,7 +31893,7 @@
       <c r="Z190" s="39"/>
     </row>
     <row r="191" spans="1:26" ht="36">
-      <c r="A191" s="79"/>
+      <c r="A191" s="84"/>
       <c r="B191" s="43" t="s">
         <v>412</v>
       </c>
@@ -31854,7 +31927,7 @@
       <c r="Z191" s="39"/>
     </row>
     <row r="192" spans="1:26" ht="96">
-      <c r="A192" s="79"/>
+      <c r="A192" s="84"/>
       <c r="B192" s="43" t="s">
         <v>414</v>
       </c>
@@ -31888,7 +31961,7 @@
       <c r="Z192" s="39"/>
     </row>
     <row r="193" spans="1:26" ht="24">
-      <c r="A193" s="79"/>
+      <c r="A193" s="84"/>
       <c r="B193" s="43" t="s">
         <v>416</v>
       </c>
@@ -31920,7 +31993,7 @@
       <c r="Z193" s="39"/>
     </row>
     <row r="194" spans="1:26" ht="36">
-      <c r="A194" s="79"/>
+      <c r="A194" s="84"/>
       <c r="B194" s="43" t="s">
         <v>417</v>
       </c>
@@ -31952,7 +32025,7 @@
       <c r="Z194" s="39"/>
     </row>
     <row r="195" spans="1:26" ht="36">
-      <c r="A195" s="79"/>
+      <c r="A195" s="84"/>
       <c r="B195" s="43" t="s">
         <v>418</v>
       </c>
@@ -31986,7 +32059,7 @@
       <c r="Z195" s="39"/>
     </row>
     <row r="196" spans="1:26" ht="108">
-      <c r="A196" s="79"/>
+      <c r="A196" s="84"/>
       <c r="B196" s="43" t="s">
         <v>420</v>
       </c>
@@ -32020,7 +32093,7 @@
       <c r="Z196" s="39"/>
     </row>
     <row r="197" spans="1:26" ht="60">
-      <c r="A197" s="79"/>
+      <c r="A197" s="84"/>
       <c r="B197" s="43" t="s">
         <v>422</v>
       </c>
@@ -32054,7 +32127,7 @@
       <c r="Z197" s="39"/>
     </row>
     <row r="198" spans="1:26" ht="96">
-      <c r="A198" s="79"/>
+      <c r="A198" s="84"/>
       <c r="B198" s="43" t="s">
         <v>424</v>
       </c>
@@ -32088,7 +32161,7 @@
       <c r="Z198" s="39"/>
     </row>
     <row r="199" spans="1:26" ht="24">
-      <c r="A199" s="79"/>
+      <c r="A199" s="84"/>
       <c r="B199" s="43" t="s">
         <v>426</v>
       </c>
@@ -32122,7 +32195,7 @@
       <c r="Z199" s="39"/>
     </row>
     <row r="200" spans="1:26" ht="96">
-      <c r="A200" s="79"/>
+      <c r="A200" s="84"/>
       <c r="B200" s="43" t="s">
         <v>428</v>
       </c>
@@ -32156,7 +32229,7 @@
       <c r="Z200" s="39"/>
     </row>
     <row r="201" spans="1:26" ht="36">
-      <c r="A201" s="79"/>
+      <c r="A201" s="84"/>
       <c r="B201" s="43" t="s">
         <v>430</v>
       </c>
@@ -32190,7 +32263,7 @@
       <c r="Z201" s="39"/>
     </row>
     <row r="202" spans="1:26" ht="108">
-      <c r="A202" s="80"/>
+      <c r="A202" s="85"/>
       <c r="B202" s="43" t="s">
         <v>432</v>
       </c>
@@ -32224,7 +32297,7 @@
       <c r="Z202" s="39"/>
     </row>
     <row r="203" spans="1:26" ht="36">
-      <c r="A203" s="78" t="s">
+      <c r="A203" s="83" t="s">
         <v>434</v>
       </c>
       <c r="B203" s="43" t="s">
@@ -32258,7 +32331,7 @@
       <c r="Z203" s="39"/>
     </row>
     <row r="204" spans="1:26" ht="36">
-      <c r="A204" s="79"/>
+      <c r="A204" s="84"/>
       <c r="B204" s="43" t="s">
         <v>436</v>
       </c>
@@ -32290,7 +32363,7 @@
       <c r="Z204" s="39"/>
     </row>
     <row r="205" spans="1:26" ht="132">
-      <c r="A205" s="79"/>
+      <c r="A205" s="84"/>
       <c r="B205" s="43" t="s">
         <v>437</v>
       </c>
@@ -32324,7 +32397,7 @@
       <c r="Z205" s="39"/>
     </row>
     <row r="206" spans="1:26" ht="24">
-      <c r="A206" s="79"/>
+      <c r="A206" s="84"/>
       <c r="B206" s="43" t="s">
         <v>424</v>
       </c>
@@ -32356,7 +32429,7 @@
       <c r="Z206" s="39"/>
     </row>
     <row r="207" spans="1:26" ht="60">
-      <c r="A207" s="79"/>
+      <c r="A207" s="84"/>
       <c r="B207" s="43" t="s">
         <v>439</v>
       </c>
@@ -32390,7 +32463,7 @@
       <c r="Z207" s="39"/>
     </row>
     <row r="208" spans="1:26" ht="84">
-      <c r="A208" s="79"/>
+      <c r="A208" s="84"/>
       <c r="B208" s="43" t="s">
         <v>441</v>
       </c>
@@ -32424,7 +32497,7 @@
       <c r="Z208" s="39"/>
     </row>
     <row r="209" spans="1:26" ht="48">
-      <c r="A209" s="79"/>
+      <c r="A209" s="84"/>
       <c r="B209" s="43" t="s">
         <v>443</v>
       </c>
@@ -32458,7 +32531,7 @@
       <c r="Z209" s="39"/>
     </row>
     <row r="210" spans="1:26" ht="48">
-      <c r="A210" s="79"/>
+      <c r="A210" s="84"/>
       <c r="B210" s="43" t="s">
         <v>445</v>
       </c>
@@ -32490,7 +32563,7 @@
       <c r="Z210" s="39"/>
     </row>
     <row r="211" spans="1:26" ht="24">
-      <c r="A211" s="79"/>
+      <c r="A211" s="84"/>
       <c r="B211" s="43" t="s">
         <v>446</v>
       </c>
@@ -32522,7 +32595,7 @@
       <c r="Z211" s="39"/>
     </row>
     <row r="212" spans="1:26" ht="48">
-      <c r="A212" s="79"/>
+      <c r="A212" s="84"/>
       <c r="B212" s="43" t="s">
         <v>447</v>
       </c>
@@ -32554,7 +32627,7 @@
       <c r="Z212" s="39"/>
     </row>
     <row r="213" spans="1:26" ht="36">
-      <c r="A213" s="79"/>
+      <c r="A213" s="84"/>
       <c r="B213" s="43" t="s">
         <v>448</v>
       </c>
@@ -32586,7 +32659,7 @@
       <c r="Z213" s="39"/>
     </row>
     <row r="214" spans="1:26" ht="24">
-      <c r="A214" s="79"/>
+      <c r="A214" s="84"/>
       <c r="B214" s="43" t="s">
         <v>449</v>
       </c>
@@ -32618,7 +32691,7 @@
       <c r="Z214" s="39"/>
     </row>
     <row r="215" spans="1:26" ht="24">
-      <c r="A215" s="80"/>
+      <c r="A215" s="85"/>
       <c r="B215" s="43" t="s">
         <v>450</v>
       </c>
@@ -32650,7 +32723,7 @@
       <c r="Z215" s="39"/>
     </row>
     <row r="216" spans="1:26" ht="48">
-      <c r="A216" s="78" t="s">
+      <c r="A216" s="83" t="s">
         <v>451</v>
       </c>
       <c r="B216" s="43" t="s">
@@ -32662,7 +32735,7 @@
       <c r="F216" s="43" t="s">
         <v>1197</v>
       </c>
-      <c r="G216" s="78" t="s">
+      <c r="G216" s="83" t="s">
         <v>453</v>
       </c>
       <c r="H216" s="39"/>
@@ -32686,7 +32759,7 @@
       <c r="Z216" s="39"/>
     </row>
     <row r="217" spans="1:26" ht="48">
-      <c r="A217" s="79"/>
+      <c r="A217" s="84"/>
       <c r="B217" s="43" t="s">
         <v>454</v>
       </c>
@@ -32696,7 +32769,7 @@
       <c r="F217" s="43" t="s">
         <v>1198</v>
       </c>
-      <c r="G217" s="79"/>
+      <c r="G217" s="84"/>
       <c r="H217" s="39"/>
       <c r="I217" s="39"/>
       <c r="J217" s="39"/>
@@ -32718,7 +32791,7 @@
       <c r="Z217" s="39"/>
     </row>
     <row r="218" spans="1:26" ht="36">
-      <c r="A218" s="79"/>
+      <c r="A218" s="84"/>
       <c r="B218" s="43" t="s">
         <v>455</v>
       </c>
@@ -32728,7 +32801,7 @@
       <c r="F218" s="44" t="s">
         <v>456</v>
       </c>
-      <c r="G218" s="79"/>
+      <c r="G218" s="84"/>
       <c r="H218" s="39"/>
       <c r="I218" s="39"/>
       <c r="J218" s="39"/>
@@ -32750,7 +32823,7 @@
       <c r="Z218" s="39"/>
     </row>
     <row r="219" spans="1:26" ht="48">
-      <c r="A219" s="79"/>
+      <c r="A219" s="84"/>
       <c r="B219" s="43" t="s">
         <v>457</v>
       </c>
@@ -32760,7 +32833,7 @@
       <c r="F219" s="43" t="s">
         <v>1199</v>
       </c>
-      <c r="G219" s="79"/>
+      <c r="G219" s="84"/>
       <c r="H219" s="39"/>
       <c r="I219" s="39"/>
       <c r="J219" s="39"/>
@@ -32782,7 +32855,7 @@
       <c r="Z219" s="39"/>
     </row>
     <row r="220" spans="1:26" ht="48">
-      <c r="A220" s="79"/>
+      <c r="A220" s="84"/>
       <c r="B220" s="43" t="s">
         <v>458</v>
       </c>
@@ -32792,7 +32865,7 @@
       <c r="F220" s="43" t="s">
         <v>1200</v>
       </c>
-      <c r="G220" s="79"/>
+      <c r="G220" s="84"/>
       <c r="H220" s="39"/>
       <c r="I220" s="39"/>
       <c r="J220" s="39"/>
@@ -32814,7 +32887,7 @@
       <c r="Z220" s="39"/>
     </row>
     <row r="221" spans="1:26">
-      <c r="A221" s="79"/>
+      <c r="A221" s="84"/>
       <c r="B221" s="43" t="s">
         <v>434</v>
       </c>
@@ -32824,7 +32897,7 @@
       <c r="F221" s="44" t="s">
         <v>459</v>
       </c>
-      <c r="G221" s="79"/>
+      <c r="G221" s="84"/>
       <c r="H221" s="39"/>
       <c r="I221" s="39"/>
       <c r="J221" s="39"/>
@@ -32846,7 +32919,7 @@
       <c r="Z221" s="39"/>
     </row>
     <row r="222" spans="1:26" ht="60">
-      <c r="A222" s="79"/>
+      <c r="A222" s="84"/>
       <c r="B222" s="43" t="s">
         <v>460</v>
       </c>
@@ -32856,7 +32929,7 @@
       <c r="F222" s="43" t="s">
         <v>1201</v>
       </c>
-      <c r="G222" s="79"/>
+      <c r="G222" s="84"/>
       <c r="H222" s="39"/>
       <c r="I222" s="39"/>
       <c r="J222" s="39"/>
@@ -32878,7 +32951,7 @@
       <c r="Z222" s="39"/>
     </row>
     <row r="223" spans="1:26" ht="24">
-      <c r="A223" s="79"/>
+      <c r="A223" s="84"/>
       <c r="B223" s="43" t="s">
         <v>461</v>
       </c>
@@ -32888,7 +32961,7 @@
       <c r="F223" s="43" t="s">
         <v>1202</v>
       </c>
-      <c r="G223" s="79"/>
+      <c r="G223" s="84"/>
       <c r="H223" s="39"/>
       <c r="I223" s="39"/>
       <c r="J223" s="39"/>
@@ -32910,7 +32983,7 @@
       <c r="Z223" s="39"/>
     </row>
     <row r="224" spans="1:26" ht="24">
-      <c r="A224" s="79"/>
+      <c r="A224" s="84"/>
       <c r="B224" s="43" t="s">
         <v>462</v>
       </c>
@@ -32920,7 +32993,7 @@
       <c r="F224" s="44" t="s">
         <v>1203</v>
       </c>
-      <c r="G224" s="79"/>
+      <c r="G224" s="84"/>
       <c r="H224" s="39"/>
       <c r="I224" s="39"/>
       <c r="J224" s="39"/>
@@ -32942,7 +33015,7 @@
       <c r="Z224" s="39"/>
     </row>
     <row r="225" spans="1:26" ht="48">
-      <c r="A225" s="80"/>
+      <c r="A225" s="85"/>
       <c r="B225" s="43" t="s">
         <v>56</v>
       </c>
@@ -32952,7 +33025,7 @@
       <c r="F225" s="43" t="s">
         <v>1204</v>
       </c>
-      <c r="G225" s="80"/>
+      <c r="G225" s="85"/>
       <c r="H225" s="39"/>
       <c r="I225" s="39"/>
       <c r="J225" s="39"/>
@@ -32974,7 +33047,7 @@
       <c r="Z225" s="39"/>
     </row>
     <row r="226" spans="1:26" ht="180">
-      <c r="A226" s="78" t="s">
+      <c r="A226" s="83" t="s">
         <v>439</v>
       </c>
       <c r="B226" s="43" t="s">
@@ -33010,7 +33083,7 @@
       <c r="Z226" s="39"/>
     </row>
     <row r="227" spans="1:26" ht="36">
-      <c r="A227" s="79"/>
+      <c r="A227" s="84"/>
       <c r="B227" s="43" t="s">
         <v>465</v>
       </c>
@@ -33044,7 +33117,7 @@
       <c r="Z227" s="39"/>
     </row>
     <row r="228" spans="1:26" ht="48">
-      <c r="A228" s="79"/>
+      <c r="A228" s="84"/>
       <c r="B228" s="43" t="s">
         <v>467</v>
       </c>
@@ -33078,7 +33151,7 @@
       <c r="Z228" s="39"/>
     </row>
     <row r="229" spans="1:26" ht="48">
-      <c r="A229" s="79"/>
+      <c r="A229" s="84"/>
       <c r="B229" s="43" t="s">
         <v>469</v>
       </c>
@@ -33112,7 +33185,7 @@
       <c r="Z229" s="39"/>
     </row>
     <row r="230" spans="1:26" ht="24">
-      <c r="A230" s="79"/>
+      <c r="A230" s="84"/>
       <c r="B230" s="43" t="s">
         <v>471</v>
       </c>
@@ -33146,7 +33219,7 @@
       <c r="Z230" s="39"/>
     </row>
     <row r="231" spans="1:26" ht="48">
-      <c r="A231" s="79"/>
+      <c r="A231" s="84"/>
       <c r="B231" s="43" t="s">
         <v>473</v>
       </c>
@@ -33180,7 +33253,7 @@
       <c r="Z231" s="39"/>
     </row>
     <row r="232" spans="1:26" ht="24">
-      <c r="A232" s="79"/>
+      <c r="A232" s="84"/>
       <c r="B232" s="43" t="s">
         <v>475</v>
       </c>
@@ -33214,7 +33287,7 @@
       <c r="Z232" s="39"/>
     </row>
     <row r="233" spans="1:26" ht="48">
-      <c r="A233" s="79"/>
+      <c r="A233" s="84"/>
       <c r="B233" s="43" t="s">
         <v>478</v>
       </c>
@@ -33248,7 +33321,7 @@
       <c r="Z233" s="39"/>
     </row>
     <row r="234" spans="1:26" ht="84">
-      <c r="A234" s="80"/>
+      <c r="A234" s="85"/>
       <c r="B234" s="43" t="s">
         <v>481</v>
       </c>
@@ -33282,7 +33355,7 @@
       <c r="Z234" s="39"/>
     </row>
     <row r="235" spans="1:26" ht="60">
-      <c r="A235" s="78" t="s">
+      <c r="A235" s="83" t="s">
         <v>484</v>
       </c>
       <c r="B235" s="43" t="s">
@@ -33318,7 +33391,7 @@
       <c r="Z235" s="39"/>
     </row>
     <row r="236" spans="1:26" ht="60">
-      <c r="A236" s="79"/>
+      <c r="A236" s="84"/>
       <c r="B236" s="43" t="s">
         <v>487</v>
       </c>
@@ -33352,7 +33425,7 @@
       <c r="Z236" s="39"/>
     </row>
     <row r="237" spans="1:26" ht="36">
-      <c r="A237" s="79"/>
+      <c r="A237" s="84"/>
       <c r="B237" s="43" t="s">
         <v>489</v>
       </c>
@@ -33386,7 +33459,7 @@
       <c r="Z237" s="39"/>
     </row>
     <row r="238" spans="1:26" ht="60">
-      <c r="A238" s="80"/>
+      <c r="A238" s="85"/>
       <c r="B238" s="43" t="s">
         <v>491</v>
       </c>
@@ -33420,7 +33493,7 @@
       <c r="Z238" s="39"/>
     </row>
     <row r="239" spans="1:26" ht="204">
-      <c r="A239" s="78" t="s">
+      <c r="A239" s="83" t="s">
         <v>493</v>
       </c>
       <c r="B239" s="43" t="s">
@@ -33456,7 +33529,7 @@
       <c r="Z239" s="39"/>
     </row>
     <row r="240" spans="1:26" ht="120">
-      <c r="A240" s="79"/>
+      <c r="A240" s="84"/>
       <c r="B240" s="43" t="s">
         <v>496</v>
       </c>
@@ -33490,7 +33563,7 @@
       <c r="Z240" s="39"/>
     </row>
     <row r="241" spans="1:26" ht="72">
-      <c r="A241" s="79"/>
+      <c r="A241" s="84"/>
       <c r="B241" s="43" t="s">
         <v>498</v>
       </c>
@@ -33524,7 +33597,7 @@
       <c r="Z241" s="39"/>
     </row>
     <row r="242" spans="1:26" ht="36">
-      <c r="A242" s="79"/>
+      <c r="A242" s="84"/>
       <c r="B242" s="43" t="s">
         <v>500</v>
       </c>
@@ -33558,7 +33631,7 @@
       <c r="Z242" s="39"/>
     </row>
     <row r="243" spans="1:26" ht="48">
-      <c r="A243" s="79"/>
+      <c r="A243" s="84"/>
       <c r="B243" s="43" t="s">
         <v>502</v>
       </c>
@@ -33592,7 +33665,7 @@
       <c r="Z243" s="39"/>
     </row>
     <row r="244" spans="1:26" ht="60">
-      <c r="A244" s="79"/>
+      <c r="A244" s="84"/>
       <c r="B244" s="43" t="s">
         <v>504</v>
       </c>
@@ -33602,7 +33675,7 @@
       <c r="F244" s="43" t="s">
         <v>1220</v>
       </c>
-      <c r="G244" s="78" t="s">
+      <c r="G244" s="83" t="s">
         <v>505</v>
       </c>
       <c r="H244" s="39"/>
@@ -33626,7 +33699,7 @@
       <c r="Z244" s="39"/>
     </row>
     <row r="245" spans="1:26" ht="168">
-      <c r="A245" s="79"/>
+      <c r="A245" s="84"/>
       <c r="B245" s="43" t="s">
         <v>506</v>
       </c>
@@ -33636,7 +33709,7 @@
       <c r="F245" s="43" t="s">
         <v>1221</v>
       </c>
-      <c r="G245" s="79"/>
+      <c r="G245" s="84"/>
       <c r="H245" s="39"/>
       <c r="I245" s="39"/>
       <c r="J245" s="39"/>
@@ -33658,7 +33731,7 @@
       <c r="Z245" s="39"/>
     </row>
     <row r="246" spans="1:26" ht="144">
-      <c r="A246" s="79"/>
+      <c r="A246" s="84"/>
       <c r="B246" s="43" t="s">
         <v>507</v>
       </c>
@@ -33668,7 +33741,7 @@
       <c r="F246" s="43" t="s">
         <v>1222</v>
       </c>
-      <c r="G246" s="80"/>
+      <c r="G246" s="85"/>
       <c r="H246" s="39"/>
       <c r="I246" s="39"/>
       <c r="J246" s="39"/>
@@ -33690,7 +33763,7 @@
       <c r="Z246" s="39"/>
     </row>
     <row r="247" spans="1:26" ht="168">
-      <c r="A247" s="79"/>
+      <c r="A247" s="84"/>
       <c r="B247" s="43" t="s">
         <v>508</v>
       </c>
@@ -33724,7 +33797,7 @@
       <c r="Z247" s="39"/>
     </row>
     <row r="248" spans="1:26" ht="24">
-      <c r="A248" s="79"/>
+      <c r="A248" s="84"/>
       <c r="B248" s="43" t="s">
         <v>511</v>
       </c>
@@ -33758,7 +33831,7 @@
       <c r="Z248" s="39"/>
     </row>
     <row r="249" spans="1:26" ht="156">
-      <c r="A249" s="79"/>
+      <c r="A249" s="84"/>
       <c r="B249" s="43" t="s">
         <v>514</v>
       </c>
@@ -33792,7 +33865,7 @@
       <c r="Z249" s="39"/>
     </row>
     <row r="250" spans="1:26" ht="144">
-      <c r="A250" s="79"/>
+      <c r="A250" s="84"/>
       <c r="B250" s="43" t="s">
         <v>517</v>
       </c>
@@ -33826,7 +33899,7 @@
       <c r="Z250" s="39"/>
     </row>
     <row r="251" spans="1:26" ht="192">
-      <c r="A251" s="79"/>
+      <c r="A251" s="84"/>
       <c r="B251" s="43" t="s">
         <v>520</v>
       </c>
@@ -33860,7 +33933,7 @@
       <c r="Z251" s="39"/>
     </row>
     <row r="252" spans="1:26" ht="24">
-      <c r="A252" s="79"/>
+      <c r="A252" s="84"/>
       <c r="B252" s="43" t="s">
         <v>523</v>
       </c>
@@ -33894,7 +33967,7 @@
       <c r="Z252" s="39"/>
     </row>
     <row r="253" spans="1:26" ht="120">
-      <c r="A253" s="80"/>
+      <c r="A253" s="85"/>
       <c r="B253" s="43" t="s">
         <v>526</v>
       </c>
@@ -33928,7 +34001,7 @@
       <c r="Z253" s="39"/>
     </row>
     <row r="254" spans="1:26" ht="36">
-      <c r="A254" s="78" t="s">
+      <c r="A254" s="83" t="s">
         <v>529</v>
       </c>
       <c r="B254" s="43" t="s">
@@ -33964,7 +34037,7 @@
       <c r="Z254" s="39"/>
     </row>
     <row r="255" spans="1:26" ht="36">
-      <c r="A255" s="79"/>
+      <c r="A255" s="84"/>
       <c r="B255" s="43" t="s">
         <v>529</v>
       </c>
@@ -33996,7 +34069,7 @@
       <c r="Z255" s="39"/>
     </row>
     <row r="256" spans="1:26" ht="48">
-      <c r="A256" s="79"/>
+      <c r="A256" s="84"/>
       <c r="B256" s="46" t="s">
         <v>532</v>
       </c>
@@ -34030,7 +34103,7 @@
       <c r="Z256" s="39"/>
     </row>
     <row r="257" spans="1:26" ht="48">
-      <c r="A257" s="79"/>
+      <c r="A257" s="84"/>
       <c r="B257" s="43" t="s">
         <v>534</v>
       </c>
@@ -34064,7 +34137,7 @@
       <c r="Z257" s="39"/>
     </row>
     <row r="258" spans="1:26" ht="120">
-      <c r="A258" s="79"/>
+      <c r="A258" s="84"/>
       <c r="B258" s="43" t="s">
         <v>536</v>
       </c>
@@ -34098,7 +34171,7 @@
       <c r="Z258" s="39"/>
     </row>
     <row r="259" spans="1:26" ht="48">
-      <c r="A259" s="79"/>
+      <c r="A259" s="84"/>
       <c r="B259" s="43" t="s">
         <v>538</v>
       </c>
@@ -34132,7 +34205,7 @@
       <c r="Z259" s="39"/>
     </row>
     <row r="260" spans="1:26" ht="60">
-      <c r="A260" s="80"/>
+      <c r="A260" s="85"/>
       <c r="B260" s="43" t="s">
         <v>540</v>
       </c>
@@ -34166,7 +34239,7 @@
       <c r="Z260" s="39"/>
     </row>
     <row r="261" spans="1:26" ht="36">
-      <c r="A261" s="78" t="s">
+      <c r="A261" s="83" t="s">
         <v>542</v>
       </c>
       <c r="B261" s="43" t="s">
@@ -34202,7 +34275,7 @@
       <c r="Z261" s="39"/>
     </row>
     <row r="262" spans="1:26" ht="36">
-      <c r="A262" s="79"/>
+      <c r="A262" s="84"/>
       <c r="B262" s="43" t="s">
         <v>544</v>
       </c>
@@ -34236,7 +34309,7 @@
       <c r="Z262" s="39"/>
     </row>
     <row r="263" spans="1:26" ht="36">
-      <c r="A263" s="79"/>
+      <c r="A263" s="84"/>
       <c r="B263" s="43" t="s">
         <v>546</v>
       </c>
@@ -34270,7 +34343,7 @@
       <c r="Z263" s="39"/>
     </row>
     <row r="264" spans="1:26" ht="36">
-      <c r="A264" s="79"/>
+      <c r="A264" s="84"/>
       <c r="B264" s="43" t="s">
         <v>548</v>
       </c>
@@ -34302,7 +34375,7 @@
       <c r="Z264" s="39"/>
     </row>
     <row r="265" spans="1:26" ht="36">
-      <c r="A265" s="79"/>
+      <c r="A265" s="84"/>
       <c r="B265" s="43" t="s">
         <v>549</v>
       </c>
@@ -34336,7 +34409,7 @@
       <c r="Z265" s="39"/>
     </row>
     <row r="266" spans="1:26" ht="84">
-      <c r="A266" s="80"/>
+      <c r="A266" s="85"/>
       <c r="B266" s="43" t="s">
         <v>551</v>
       </c>
@@ -34370,7 +34443,7 @@
       <c r="Z266" s="39"/>
     </row>
     <row r="267" spans="1:26" ht="36">
-      <c r="A267" s="78" t="s">
+      <c r="A267" s="83" t="s">
         <v>553</v>
       </c>
       <c r="B267" s="43" t="s">
@@ -34382,7 +34455,7 @@
       <c r="F267" s="43" t="s">
         <v>1236</v>
       </c>
-      <c r="G267" s="78" t="s">
+      <c r="G267" s="83" t="s">
         <v>554</v>
       </c>
       <c r="H267" s="39"/>
@@ -34406,7 +34479,7 @@
       <c r="Z267" s="39"/>
     </row>
     <row r="268" spans="1:26" ht="60">
-      <c r="A268" s="79"/>
+      <c r="A268" s="84"/>
       <c r="B268" s="43" t="s">
         <v>555</v>
       </c>
@@ -34416,7 +34489,7 @@
       <c r="F268" s="43" t="s">
         <v>1237</v>
       </c>
-      <c r="G268" s="79"/>
+      <c r="G268" s="84"/>
       <c r="H268" s="39"/>
       <c r="I268" s="39"/>
       <c r="J268" s="39"/>
@@ -34438,7 +34511,7 @@
       <c r="Z268" s="39"/>
     </row>
     <row r="269" spans="1:26" ht="48">
-      <c r="A269" s="79"/>
+      <c r="A269" s="84"/>
       <c r="B269" s="43" t="s">
         <v>556</v>
       </c>
@@ -34448,7 +34521,7 @@
       <c r="F269" s="43" t="s">
         <v>1238</v>
       </c>
-      <c r="G269" s="79"/>
+      <c r="G269" s="84"/>
       <c r="H269" s="39"/>
       <c r="I269" s="39"/>
       <c r="J269" s="39"/>
@@ -34470,7 +34543,7 @@
       <c r="Z269" s="39"/>
     </row>
     <row r="270" spans="1:26" ht="24">
-      <c r="A270" s="79"/>
+      <c r="A270" s="84"/>
       <c r="B270" s="43" t="s">
         <v>557</v>
       </c>
@@ -34480,7 +34553,7 @@
       <c r="F270" s="43" t="s">
         <v>1239</v>
       </c>
-      <c r="G270" s="79"/>
+      <c r="G270" s="84"/>
       <c r="H270" s="39"/>
       <c r="I270" s="39"/>
       <c r="J270" s="39"/>
@@ -34502,7 +34575,7 @@
       <c r="Z270" s="39"/>
     </row>
     <row r="271" spans="1:26" ht="36">
-      <c r="A271" s="79"/>
+      <c r="A271" s="84"/>
       <c r="B271" s="43" t="s">
         <v>558</v>
       </c>
@@ -34512,7 +34585,7 @@
       <c r="F271" s="43" t="s">
         <v>1240</v>
       </c>
-      <c r="G271" s="79"/>
+      <c r="G271" s="84"/>
       <c r="H271" s="39"/>
       <c r="I271" s="39"/>
       <c r="J271" s="39"/>
@@ -34534,7 +34607,7 @@
       <c r="Z271" s="39"/>
     </row>
     <row r="272" spans="1:26" ht="36">
-      <c r="A272" s="80"/>
+      <c r="A272" s="85"/>
       <c r="B272" s="43" t="s">
         <v>559</v>
       </c>
@@ -34544,7 +34617,7 @@
       <c r="F272" s="43" t="s">
         <v>1241</v>
       </c>
-      <c r="G272" s="80"/>
+      <c r="G272" s="85"/>
       <c r="H272" s="39"/>
       <c r="I272" s="39"/>
       <c r="J272" s="39"/>
@@ -34566,7 +34639,7 @@
       <c r="Z272" s="39"/>
     </row>
     <row r="273" spans="1:26" ht="36">
-      <c r="A273" s="78" t="s">
+      <c r="A273" s="83" t="s">
         <v>447</v>
       </c>
       <c r="B273" s="43" t="s">
@@ -34600,7 +34673,7 @@
       <c r="Z273" s="39"/>
     </row>
     <row r="274" spans="1:26" ht="36">
-      <c r="A274" s="79"/>
+      <c r="A274" s="84"/>
       <c r="B274" s="43" t="s">
         <v>560</v>
       </c>
@@ -34632,7 +34705,7 @@
       <c r="Z274" s="39"/>
     </row>
     <row r="275" spans="1:26" ht="24">
-      <c r="A275" s="79"/>
+      <c r="A275" s="84"/>
       <c r="B275" s="43" t="s">
         <v>562</v>
       </c>
@@ -34664,7 +34737,7 @@
       <c r="Z275" s="39"/>
     </row>
     <row r="276" spans="1:26" ht="48">
-      <c r="A276" s="79"/>
+      <c r="A276" s="84"/>
       <c r="B276" s="43" t="s">
         <v>563</v>
       </c>
@@ -34698,7 +34771,7 @@
       <c r="Z276" s="39"/>
     </row>
     <row r="277" spans="1:26" ht="36">
-      <c r="A277" s="79"/>
+      <c r="A277" s="84"/>
       <c r="B277" s="43" t="s">
         <v>565</v>
       </c>
@@ -34732,7 +34805,7 @@
       <c r="Z277" s="39"/>
     </row>
     <row r="278" spans="1:26" ht="24">
-      <c r="A278" s="79"/>
+      <c r="A278" s="84"/>
       <c r="B278" s="43" t="s">
         <v>568</v>
       </c>
@@ -34766,7 +34839,7 @@
       <c r="Z278" s="39"/>
     </row>
     <row r="279" spans="1:26" ht="36">
-      <c r="A279" s="79"/>
+      <c r="A279" s="84"/>
       <c r="B279" s="43" t="s">
         <v>571</v>
       </c>
@@ -34800,7 +34873,7 @@
       <c r="Z279" s="39"/>
     </row>
     <row r="280" spans="1:26" ht="60">
-      <c r="A280" s="79"/>
+      <c r="A280" s="84"/>
       <c r="B280" s="43" t="s">
         <v>573</v>
       </c>
@@ -34834,7 +34907,7 @@
       <c r="Z280" s="39"/>
     </row>
     <row r="281" spans="1:26" ht="24">
-      <c r="A281" s="79"/>
+      <c r="A281" s="84"/>
       <c r="B281" s="43" t="s">
         <v>575</v>
       </c>
@@ -34866,7 +34939,7 @@
       <c r="Z281" s="39"/>
     </row>
     <row r="282" spans="1:26" ht="24">
-      <c r="A282" s="80"/>
+      <c r="A282" s="85"/>
       <c r="B282" s="43" t="s">
         <v>576</v>
       </c>
@@ -34900,7 +34973,7 @@
       <c r="Z282" s="39"/>
     </row>
     <row r="283" spans="1:26" ht="36">
-      <c r="A283" s="81" t="s">
+      <c r="A283" s="86" t="s">
         <v>578</v>
       </c>
       <c r="B283" s="43" t="s">
@@ -34936,7 +35009,7 @@
       <c r="Z283" s="39"/>
     </row>
     <row r="284" spans="1:26" ht="36">
-      <c r="A284" s="79"/>
+      <c r="A284" s="84"/>
       <c r="B284" s="43" t="s">
         <v>581</v>
       </c>
@@ -34970,7 +35043,7 @@
       <c r="Z284" s="39"/>
     </row>
     <row r="285" spans="1:26" ht="48">
-      <c r="A285" s="79"/>
+      <c r="A285" s="84"/>
       <c r="B285" s="43" t="s">
         <v>584</v>
       </c>
@@ -35004,7 +35077,7 @@
       <c r="Z285" s="39"/>
     </row>
     <row r="286" spans="1:26" ht="36">
-      <c r="A286" s="79"/>
+      <c r="A286" s="84"/>
       <c r="B286" s="43" t="s">
         <v>587</v>
       </c>
@@ -35038,7 +35111,7 @@
       <c r="Z286" s="39"/>
     </row>
     <row r="287" spans="1:26" ht="312">
-      <c r="A287" s="79"/>
+      <c r="A287" s="84"/>
       <c r="B287" s="43" t="s">
         <v>590</v>
       </c>
@@ -35072,7 +35145,7 @@
       <c r="Z287" s="39"/>
     </row>
     <row r="288" spans="1:26" ht="132">
-      <c r="A288" s="79"/>
+      <c r="A288" s="84"/>
       <c r="B288" s="43" t="s">
         <v>593</v>
       </c>
@@ -35106,7 +35179,7 @@
       <c r="Z288" s="39"/>
     </row>
     <row r="289" spans="1:26" ht="72">
-      <c r="A289" s="79"/>
+      <c r="A289" s="84"/>
       <c r="B289" s="43" t="s">
         <v>595</v>
       </c>
@@ -35140,7 +35213,7 @@
       <c r="Z289" s="39"/>
     </row>
     <row r="290" spans="1:26" ht="144">
-      <c r="A290" s="79"/>
+      <c r="A290" s="84"/>
       <c r="B290" s="43" t="s">
         <v>598</v>
       </c>
@@ -35174,7 +35247,7 @@
       <c r="Z290" s="39"/>
     </row>
     <row r="291" spans="1:26" ht="409.5">
-      <c r="A291" s="79"/>
+      <c r="A291" s="84"/>
       <c r="B291" s="43" t="s">
         <v>601</v>
       </c>
@@ -35208,7 +35281,7 @@
       <c r="Z291" s="39"/>
     </row>
     <row r="292" spans="1:26" ht="36">
-      <c r="A292" s="79"/>
+      <c r="A292" s="84"/>
       <c r="B292" s="43" t="s">
         <v>603</v>
       </c>
@@ -35242,7 +35315,7 @@
       <c r="Z292" s="39"/>
     </row>
     <row r="293" spans="1:26" ht="24">
-      <c r="A293" s="79"/>
+      <c r="A293" s="84"/>
       <c r="B293" s="43" t="s">
         <v>605</v>
       </c>
@@ -35276,7 +35349,7 @@
       <c r="Z293" s="39"/>
     </row>
     <row r="294" spans="1:26" ht="36">
-      <c r="A294" s="79"/>
+      <c r="A294" s="84"/>
       <c r="B294" s="43" t="s">
         <v>607</v>
       </c>
@@ -35310,7 +35383,7 @@
       <c r="Z294" s="39"/>
     </row>
     <row r="295" spans="1:26" ht="60">
-      <c r="A295" s="79"/>
+      <c r="A295" s="84"/>
       <c r="B295" s="43" t="s">
         <v>609</v>
       </c>
@@ -35342,7 +35415,7 @@
       <c r="Z295" s="39"/>
     </row>
     <row r="296" spans="1:26" ht="156">
-      <c r="A296" s="79"/>
+      <c r="A296" s="84"/>
       <c r="B296" s="43" t="s">
         <v>611</v>
       </c>
@@ -35376,7 +35449,7 @@
       <c r="Z296" s="39"/>
     </row>
     <row r="297" spans="1:26" ht="409.5">
-      <c r="A297" s="79"/>
+      <c r="A297" s="84"/>
       <c r="B297" s="43" t="s">
         <v>613</v>
       </c>
@@ -35410,7 +35483,7 @@
       <c r="Z297" s="39"/>
     </row>
     <row r="298" spans="1:26" ht="48">
-      <c r="A298" s="79"/>
+      <c r="A298" s="84"/>
       <c r="B298" s="43" t="s">
         <v>616</v>
       </c>
@@ -35444,7 +35517,7 @@
       <c r="Z298" s="39"/>
     </row>
     <row r="299" spans="1:26" ht="60">
-      <c r="A299" s="79"/>
+      <c r="A299" s="84"/>
       <c r="B299" s="43" t="s">
         <v>609</v>
       </c>
@@ -35478,7 +35551,7 @@
       <c r="Z299" s="39"/>
     </row>
     <row r="300" spans="1:26" ht="60">
-      <c r="A300" s="79"/>
+      <c r="A300" s="84"/>
       <c r="B300" s="43" t="s">
         <v>619</v>
       </c>
@@ -35512,7 +35585,7 @@
       <c r="Z300" s="39"/>
     </row>
     <row r="301" spans="1:26" ht="108">
-      <c r="A301" s="80"/>
+      <c r="A301" s="85"/>
       <c r="B301" s="43" t="s">
         <v>622</v>
       </c>
@@ -35544,7 +35617,7 @@
       <c r="Z301" s="39"/>
     </row>
     <row r="302" spans="1:26" ht="75.75" customHeight="1">
-      <c r="A302" s="78" t="s">
+      <c r="A302" s="83" t="s">
         <v>624</v>
       </c>
       <c r="B302" s="43" t="s">
@@ -35578,7 +35651,7 @@
       <c r="Z302" s="39"/>
     </row>
     <row r="303" spans="1:26" ht="119.25" customHeight="1">
-      <c r="A303" s="79"/>
+      <c r="A303" s="84"/>
       <c r="B303" s="43" t="s">
         <v>626</v>
       </c>
@@ -35612,7 +35685,7 @@
       <c r="Z303" s="39"/>
     </row>
     <row r="304" spans="1:26" ht="72">
-      <c r="A304" s="79"/>
+      <c r="A304" s="84"/>
       <c r="B304" s="43" t="s">
         <v>628</v>
       </c>
@@ -35646,7 +35719,7 @@
       <c r="Z304" s="39"/>
     </row>
     <row r="305" spans="1:26" ht="72">
-      <c r="A305" s="79"/>
+      <c r="A305" s="84"/>
       <c r="B305" s="43" t="s">
         <v>630</v>
       </c>
@@ -35680,7 +35753,7 @@
       <c r="Z305" s="39"/>
     </row>
     <row r="306" spans="1:26" ht="108">
-      <c r="A306" s="79"/>
+      <c r="A306" s="84"/>
       <c r="B306" s="43" t="s">
         <v>632</v>
       </c>
@@ -35714,7 +35787,7 @@
       <c r="Z306" s="39"/>
     </row>
     <row r="307" spans="1:26" ht="264">
-      <c r="A307" s="79"/>
+      <c r="A307" s="84"/>
       <c r="B307" s="43" t="s">
         <v>634</v>
       </c>
@@ -35748,7 +35821,7 @@
       <c r="Z307" s="39"/>
     </row>
     <row r="308" spans="1:26" ht="144">
-      <c r="A308" s="79"/>
+      <c r="A308" s="84"/>
       <c r="B308" s="43" t="s">
         <v>636</v>
       </c>
@@ -35782,7 +35855,7 @@
       <c r="Z308" s="39"/>
     </row>
     <row r="309" spans="1:26" ht="204">
-      <c r="A309" s="79"/>
+      <c r="A309" s="84"/>
       <c r="B309" s="43" t="s">
         <v>638</v>
       </c>
@@ -35816,7 +35889,7 @@
       <c r="Z309" s="39"/>
     </row>
     <row r="310" spans="1:26" ht="120">
-      <c r="A310" s="79"/>
+      <c r="A310" s="84"/>
       <c r="B310" s="43" t="s">
         <v>640</v>
       </c>
@@ -35850,7 +35923,7 @@
       <c r="Z310" s="39"/>
     </row>
     <row r="311" spans="1:26" ht="275.25" customHeight="1">
-      <c r="A311" s="79"/>
+      <c r="A311" s="84"/>
       <c r="B311" s="43" t="s">
         <v>642</v>
       </c>
@@ -35884,7 +35957,7 @@
       <c r="Z311" s="39"/>
     </row>
     <row r="312" spans="1:26" ht="192">
-      <c r="A312" s="79"/>
+      <c r="A312" s="84"/>
       <c r="B312" s="43" t="s">
         <v>644</v>
       </c>
@@ -35918,7 +35991,7 @@
       <c r="Z312" s="39"/>
     </row>
     <row r="313" spans="1:26" ht="264">
-      <c r="A313" s="79"/>
+      <c r="A313" s="84"/>
       <c r="B313" s="43" t="s">
         <v>646</v>
       </c>
@@ -35952,7 +36025,7 @@
       <c r="Z313" s="39"/>
     </row>
     <row r="314" spans="1:26" ht="408">
-      <c r="A314" s="79"/>
+      <c r="A314" s="84"/>
       <c r="B314" s="43" t="s">
         <v>649</v>
       </c>
@@ -35986,7 +36059,7 @@
       <c r="Z314" s="39"/>
     </row>
     <row r="315" spans="1:26" ht="264">
-      <c r="A315" s="79"/>
+      <c r="A315" s="84"/>
       <c r="B315" s="43" t="s">
         <v>652</v>
       </c>
@@ -36020,7 +36093,7 @@
       <c r="Z315" s="39"/>
     </row>
     <row r="316" spans="1:26" ht="120">
-      <c r="A316" s="80"/>
+      <c r="A316" s="85"/>
       <c r="B316" s="43" t="s">
         <v>655</v>
       </c>
@@ -36054,7 +36127,7 @@
       <c r="Z316" s="39"/>
     </row>
     <row r="317" spans="1:26" ht="39.75" customHeight="1">
-      <c r="A317" s="71" t="s">
+      <c r="A317" s="87" t="s">
         <v>657</v>
       </c>
       <c r="B317" s="43" t="s">
@@ -36088,7 +36161,7 @@
       <c r="Z317" s="39"/>
     </row>
     <row r="318" spans="1:26" ht="36">
-      <c r="A318" s="73"/>
+      <c r="A318" s="88"/>
       <c r="B318" s="43" t="s">
         <v>658</v>
       </c>
@@ -36122,7 +36195,7 @@
       <c r="Z318" s="39"/>
     </row>
     <row r="319" spans="1:26" ht="36">
-      <c r="A319" s="73"/>
+      <c r="A319" s="88"/>
       <c r="B319" s="43" t="s">
         <v>660</v>
       </c>
@@ -36154,7 +36227,7 @@
       <c r="Z319" s="39"/>
     </row>
     <row r="320" spans="1:26" ht="144">
-      <c r="A320" s="73"/>
+      <c r="A320" s="88"/>
       <c r="B320" s="43" t="s">
         <v>661</v>
       </c>
@@ -36188,7 +36261,7 @@
       <c r="Z320" s="39"/>
     </row>
     <row r="321" spans="1:26" ht="24">
-      <c r="A321" s="73"/>
+      <c r="A321" s="88"/>
       <c r="B321" s="43" t="s">
         <v>662</v>
       </c>
@@ -36220,7 +36293,7 @@
       <c r="Z321" s="39"/>
     </row>
     <row r="322" spans="1:26" ht="48">
-      <c r="A322" s="73"/>
+      <c r="A322" s="88"/>
       <c r="B322" s="43" t="s">
         <v>663</v>
       </c>
@@ -36252,7 +36325,7 @@
       <c r="Z322" s="39"/>
     </row>
     <row r="323" spans="1:26" ht="24">
-      <c r="A323" s="73"/>
+      <c r="A323" s="88"/>
       <c r="B323" s="43" t="s">
         <v>664</v>
       </c>
@@ -36284,7 +36357,7 @@
       <c r="Z323" s="39"/>
     </row>
     <row r="324" spans="1:26" ht="36">
-      <c r="A324" s="73"/>
+      <c r="A324" s="88"/>
       <c r="B324" s="43" t="s">
         <v>665</v>
       </c>
@@ -36316,7 +36389,7 @@
       <c r="Z324" s="39"/>
     </row>
     <row r="325" spans="1:26" ht="72">
-      <c r="A325" s="73"/>
+      <c r="A325" s="88"/>
       <c r="B325" s="43" t="s">
         <v>666</v>
       </c>
@@ -36350,7 +36423,7 @@
       <c r="Z325" s="39"/>
     </row>
     <row r="326" spans="1:26" ht="84">
-      <c r="A326" s="72"/>
+      <c r="A326" s="89"/>
       <c r="B326" s="43" t="s">
         <v>667</v>
       </c>
@@ -36384,7 +36457,7 @@
       <c r="Z326" s="39"/>
     </row>
     <row r="327" spans="1:26" ht="108" customHeight="1">
-      <c r="A327" s="78" t="s">
+      <c r="A327" s="83" t="s">
         <v>668</v>
       </c>
       <c r="B327" s="43" t="s">
@@ -36396,7 +36469,7 @@
       <c r="F327" s="44" t="s">
         <v>670</v>
       </c>
-      <c r="G327" s="71" t="s">
+      <c r="G327" s="87" t="s">
         <v>1371</v>
       </c>
       <c r="H327" s="39"/>
@@ -36420,7 +36493,7 @@
       <c r="Z327" s="39"/>
     </row>
     <row r="328" spans="1:26" ht="24">
-      <c r="A328" s="79"/>
+      <c r="A328" s="84"/>
       <c r="B328" s="43" t="s">
         <v>671</v>
       </c>
@@ -36430,7 +36503,7 @@
       <c r="F328" s="44" t="s">
         <v>672</v>
       </c>
-      <c r="G328" s="73"/>
+      <c r="G328" s="88"/>
       <c r="H328" s="39"/>
       <c r="I328" s="39"/>
       <c r="J328" s="39"/>
@@ -36452,7 +36525,7 @@
       <c r="Z328" s="39"/>
     </row>
     <row r="329" spans="1:26">
-      <c r="A329" s="79"/>
+      <c r="A329" s="84"/>
       <c r="B329" s="43" t="s">
         <v>673</v>
       </c>
@@ -36462,7 +36535,7 @@
       <c r="F329" s="44" t="s">
         <v>674</v>
       </c>
-      <c r="G329" s="73"/>
+      <c r="G329" s="88"/>
       <c r="H329" s="39"/>
       <c r="I329" s="39"/>
       <c r="J329" s="39"/>
@@ -36484,7 +36557,7 @@
       <c r="Z329" s="39"/>
     </row>
     <row r="330" spans="1:26" ht="24">
-      <c r="A330" s="79"/>
+      <c r="A330" s="84"/>
       <c r="B330" s="43" t="s">
         <v>675</v>
       </c>
@@ -36494,7 +36567,7 @@
       <c r="F330" s="43" t="s">
         <v>1368</v>
       </c>
-      <c r="G330" s="73"/>
+      <c r="G330" s="88"/>
       <c r="H330" s="39"/>
       <c r="I330" s="39"/>
       <c r="J330" s="39"/>
@@ -36516,7 +36589,7 @@
       <c r="Z330" s="39"/>
     </row>
     <row r="331" spans="1:26" ht="24">
-      <c r="A331" s="79"/>
+      <c r="A331" s="84"/>
       <c r="B331" s="43" t="s">
         <v>676</v>
       </c>
@@ -36526,7 +36599,7 @@
       <c r="F331" s="44" t="s">
         <v>677</v>
       </c>
-      <c r="G331" s="73"/>
+      <c r="G331" s="88"/>
       <c r="H331" s="39"/>
       <c r="I331" s="39"/>
       <c r="J331" s="39"/>
@@ -36548,7 +36621,7 @@
       <c r="Z331" s="39"/>
     </row>
     <row r="332" spans="1:26" ht="24">
-      <c r="A332" s="79"/>
+      <c r="A332" s="84"/>
       <c r="B332" s="43" t="s">
         <v>678</v>
       </c>
@@ -36558,7 +36631,7 @@
       <c r="F332" s="44" t="s">
         <v>1369</v>
       </c>
-      <c r="G332" s="73"/>
+      <c r="G332" s="88"/>
       <c r="H332" s="39"/>
       <c r="I332" s="39"/>
       <c r="J332" s="39"/>
@@ -36580,7 +36653,7 @@
       <c r="Z332" s="39"/>
     </row>
     <row r="333" spans="1:26" ht="24">
-      <c r="A333" s="79"/>
+      <c r="A333" s="84"/>
       <c r="B333" s="43" t="s">
         <v>679</v>
       </c>
@@ -36590,7 +36663,7 @@
       <c r="F333" s="43" t="s">
         <v>1353</v>
       </c>
-      <c r="G333" s="73"/>
+      <c r="G333" s="88"/>
       <c r="H333" s="39"/>
       <c r="I333" s="39"/>
       <c r="J333" s="39"/>
@@ -36612,7 +36685,7 @@
       <c r="Z333" s="39"/>
     </row>
     <row r="334" spans="1:26" ht="24">
-      <c r="A334" s="80"/>
+      <c r="A334" s="85"/>
       <c r="B334" s="43" t="s">
         <v>680</v>
       </c>
@@ -36622,7 +36695,7 @@
       <c r="F334" s="43" t="s">
         <v>1370</v>
       </c>
-      <c r="G334" s="72"/>
+      <c r="G334" s="89"/>
       <c r="H334" s="39"/>
       <c r="I334" s="39"/>
       <c r="J334" s="39"/>
@@ -36644,7 +36717,7 @@
       <c r="Z334" s="39"/>
     </row>
     <row r="335" spans="1:26" ht="24">
-      <c r="A335" s="78" t="s">
+      <c r="A335" s="83" t="s">
         <v>681</v>
       </c>
       <c r="B335" s="43" t="s">
@@ -36678,7 +36751,7 @@
       <c r="Z335" s="39"/>
     </row>
     <row r="336" spans="1:26" ht="132">
-      <c r="A336" s="79"/>
+      <c r="A336" s="84"/>
       <c r="B336" s="43" t="s">
         <v>683</v>
       </c>
@@ -36712,7 +36785,7 @@
       <c r="Z336" s="39"/>
     </row>
     <row r="337" spans="1:26" ht="144">
-      <c r="A337" s="79"/>
+      <c r="A337" s="84"/>
       <c r="B337" s="43" t="s">
         <v>684</v>
       </c>
@@ -36746,7 +36819,7 @@
       <c r="Z337" s="39"/>
     </row>
     <row r="338" spans="1:26" ht="36">
-      <c r="A338" s="79"/>
+      <c r="A338" s="84"/>
       <c r="B338" s="43" t="s">
         <v>685</v>
       </c>
@@ -36778,7 +36851,7 @@
       <c r="Z338" s="39"/>
     </row>
     <row r="339" spans="1:26" ht="36">
-      <c r="A339" s="79"/>
+      <c r="A339" s="84"/>
       <c r="B339" s="43" t="s">
         <v>686</v>
       </c>
@@ -36810,7 +36883,7 @@
       <c r="Z339" s="39"/>
     </row>
     <row r="340" spans="1:26" ht="48">
-      <c r="A340" s="80"/>
+      <c r="A340" s="85"/>
       <c r="B340" s="43" t="s">
         <v>687</v>
       </c>
@@ -36842,7 +36915,7 @@
       <c r="Z340" s="39"/>
     </row>
     <row r="341" spans="1:26" ht="60">
-      <c r="A341" s="78" t="s">
+      <c r="A341" s="83" t="s">
         <v>689</v>
       </c>
       <c r="B341" s="43" t="s">
@@ -36854,7 +36927,7 @@
       <c r="F341" s="43" t="s">
         <v>1379</v>
       </c>
-      <c r="G341" s="78" t="s">
+      <c r="G341" s="83" t="s">
         <v>1387</v>
       </c>
       <c r="H341" s="39"/>
@@ -36878,7 +36951,7 @@
       <c r="Z341" s="39"/>
     </row>
     <row r="342" spans="1:26" ht="36">
-      <c r="A342" s="79"/>
+      <c r="A342" s="84"/>
       <c r="B342" s="43" t="s">
         <v>691</v>
       </c>
@@ -36888,7 +36961,7 @@
       <c r="F342" s="43" t="s">
         <v>1380</v>
       </c>
-      <c r="G342" s="79"/>
+      <c r="G342" s="84"/>
       <c r="H342" s="39"/>
       <c r="I342" s="39"/>
       <c r="J342" s="39"/>
@@ -36910,7 +36983,7 @@
       <c r="Z342" s="39"/>
     </row>
     <row r="343" spans="1:26" ht="36">
-      <c r="A343" s="79"/>
+      <c r="A343" s="84"/>
       <c r="B343" s="43" t="s">
         <v>692</v>
       </c>
@@ -36920,7 +36993,7 @@
       <c r="F343" s="43" t="s">
         <v>1381</v>
       </c>
-      <c r="G343" s="79"/>
+      <c r="G343" s="84"/>
       <c r="H343" s="39"/>
       <c r="I343" s="39"/>
       <c r="J343" s="39"/>
@@ -36942,7 +37015,7 @@
       <c r="Z343" s="39"/>
     </row>
     <row r="344" spans="1:26" ht="24">
-      <c r="A344" s="79"/>
+      <c r="A344" s="84"/>
       <c r="B344" s="43" t="s">
         <v>693</v>
       </c>
@@ -36952,7 +37025,7 @@
       <c r="F344" s="43" t="s">
         <v>1382</v>
       </c>
-      <c r="G344" s="79"/>
+      <c r="G344" s="84"/>
       <c r="H344" s="39"/>
       <c r="I344" s="39"/>
       <c r="J344" s="39"/>
@@ -36974,7 +37047,7 @@
       <c r="Z344" s="39"/>
     </row>
     <row r="345" spans="1:26" ht="36">
-      <c r="A345" s="79"/>
+      <c r="A345" s="84"/>
       <c r="B345" s="43" t="s">
         <v>694</v>
       </c>
@@ -36984,7 +37057,7 @@
       <c r="F345" s="43" t="s">
         <v>1383</v>
       </c>
-      <c r="G345" s="79"/>
+      <c r="G345" s="84"/>
       <c r="H345" s="39"/>
       <c r="I345" s="39"/>
       <c r="J345" s="39"/>
@@ -37006,7 +37079,7 @@
       <c r="Z345" s="39"/>
     </row>
     <row r="346" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A346" s="80"/>
+      <c r="A346" s="85"/>
       <c r="B346" s="43" t="s">
         <v>695</v>
       </c>
@@ -37016,7 +37089,7 @@
       <c r="F346" s="43" t="s">
         <v>1384</v>
       </c>
-      <c r="G346" s="80"/>
+      <c r="G346" s="85"/>
       <c r="H346" s="39"/>
       <c r="I346" s="39"/>
       <c r="J346" s="39"/>
@@ -37038,7 +37111,7 @@
       <c r="Z346" s="39"/>
     </row>
     <row r="347" spans="1:26" ht="36">
-      <c r="A347" s="78" t="s">
+      <c r="A347" s="83" t="s">
         <v>696</v>
       </c>
       <c r="B347" s="43" t="s">
@@ -37050,7 +37123,7 @@
       <c r="F347" s="43" t="s">
         <v>1385</v>
       </c>
-      <c r="G347" s="78" t="s">
+      <c r="G347" s="83" t="s">
         <v>1386</v>
       </c>
       <c r="H347" s="39"/>
@@ -37074,7 +37147,7 @@
       <c r="Z347" s="39"/>
     </row>
     <row r="348" spans="1:26" ht="36">
-      <c r="A348" s="79"/>
+      <c r="A348" s="84"/>
       <c r="B348" s="43" t="s">
         <v>698</v>
       </c>
@@ -37084,7 +37157,7 @@
       <c r="F348" s="43" t="s">
         <v>1388</v>
       </c>
-      <c r="G348" s="79"/>
+      <c r="G348" s="84"/>
       <c r="H348" s="39"/>
       <c r="I348" s="39"/>
       <c r="J348" s="39"/>
@@ -37106,7 +37179,7 @@
       <c r="Z348" s="39"/>
     </row>
     <row r="349" spans="1:26" ht="48">
-      <c r="A349" s="79"/>
+      <c r="A349" s="84"/>
       <c r="B349" s="43" t="s">
         <v>699</v>
       </c>
@@ -37116,7 +37189,7 @@
       <c r="F349" s="43" t="s">
         <v>1389</v>
       </c>
-      <c r="G349" s="79"/>
+      <c r="G349" s="84"/>
       <c r="H349" s="39"/>
       <c r="I349" s="39"/>
       <c r="J349" s="39"/>
@@ -37138,7 +37211,7 @@
       <c r="Z349" s="39"/>
     </row>
     <row r="350" spans="1:26" ht="214.5" customHeight="1">
-      <c r="A350" s="79"/>
+      <c r="A350" s="84"/>
       <c r="B350" s="43" t="s">
         <v>700</v>
       </c>
@@ -37148,7 +37221,7 @@
       <c r="F350" s="43" t="s">
         <v>1390</v>
       </c>
-      <c r="G350" s="79"/>
+      <c r="G350" s="84"/>
       <c r="H350" s="39"/>
       <c r="I350" s="39"/>
       <c r="J350" s="39"/>
@@ -37170,7 +37243,7 @@
       <c r="Z350" s="39"/>
     </row>
     <row r="351" spans="1:26" ht="48">
-      <c r="A351" s="78" t="s">
+      <c r="A351" s="83" t="s">
         <v>701</v>
       </c>
       <c r="B351" s="43" t="s">
@@ -37182,7 +37255,7 @@
       <c r="F351" s="67" t="s">
         <v>1391</v>
       </c>
-      <c r="G351" s="78" t="s">
+      <c r="G351" s="83" t="s">
         <v>1386</v>
       </c>
       <c r="H351" s="39"/>
@@ -37206,7 +37279,7 @@
       <c r="Z351" s="39"/>
     </row>
     <row r="352" spans="1:26" ht="24">
-      <c r="A352" s="79"/>
+      <c r="A352" s="84"/>
       <c r="B352" s="43" t="s">
         <v>703</v>
       </c>
@@ -37216,7 +37289,7 @@
       <c r="F352" s="43" t="s">
         <v>1392</v>
       </c>
-      <c r="G352" s="79"/>
+      <c r="G352" s="84"/>
       <c r="H352" s="39"/>
       <c r="I352" s="39"/>
       <c r="J352" s="39"/>
@@ -37238,7 +37311,7 @@
       <c r="Z352" s="39"/>
     </row>
     <row r="353" spans="1:26" ht="36">
-      <c r="A353" s="79"/>
+      <c r="A353" s="84"/>
       <c r="B353" s="43" t="s">
         <v>704</v>
       </c>
@@ -37248,7 +37321,7 @@
       <c r="F353" s="43" t="s">
         <v>1393</v>
       </c>
-      <c r="G353" s="79"/>
+      <c r="G353" s="84"/>
       <c r="H353" s="39"/>
       <c r="I353" s="39"/>
       <c r="J353" s="39"/>
@@ -37270,7 +37343,7 @@
       <c r="Z353" s="39"/>
     </row>
     <row r="354" spans="1:26" ht="36">
-      <c r="A354" s="79"/>
+      <c r="A354" s="84"/>
       <c r="B354" s="43" t="s">
         <v>705</v>
       </c>
@@ -37280,7 +37353,7 @@
       <c r="F354" s="43" t="s">
         <v>1394</v>
       </c>
-      <c r="G354" s="79"/>
+      <c r="G354" s="84"/>
       <c r="H354" s="39"/>
       <c r="I354" s="39"/>
       <c r="J354" s="39"/>
@@ -37302,7 +37375,7 @@
       <c r="Z354" s="39"/>
     </row>
     <row r="355" spans="1:26" ht="181.5" customHeight="1">
-      <c r="A355" s="80"/>
+      <c r="A355" s="85"/>
       <c r="B355" s="43" t="s">
         <v>706</v>
       </c>
@@ -37312,7 +37385,7 @@
       <c r="F355" s="43" t="s">
         <v>1395</v>
       </c>
-      <c r="G355" s="80"/>
+      <c r="G355" s="85"/>
       <c r="H355" s="39"/>
       <c r="I355" s="39"/>
       <c r="J355" s="39"/>
@@ -37334,7 +37407,7 @@
       <c r="Z355" s="39"/>
     </row>
     <row r="356" spans="1:26" ht="372">
-      <c r="A356" s="78" t="s">
+      <c r="A356" s="83" t="s">
         <v>707</v>
       </c>
       <c r="B356" s="43" t="s">
@@ -37370,7 +37443,7 @@
       <c r="Z356" s="39"/>
     </row>
     <row r="357" spans="1:26" ht="36">
-      <c r="A357" s="79"/>
+      <c r="A357" s="84"/>
       <c r="B357" s="43" t="s">
         <v>709</v>
       </c>
@@ -37404,7 +37477,7 @@
       <c r="Z357" s="39"/>
     </row>
     <row r="358" spans="1:26" ht="36">
-      <c r="A358" s="79"/>
+      <c r="A358" s="84"/>
       <c r="B358" s="43" t="s">
         <v>710</v>
       </c>
@@ -37438,7 +37511,7 @@
       <c r="Z358" s="39"/>
     </row>
     <row r="359" spans="1:26" ht="48">
-      <c r="A359" s="80"/>
+      <c r="A359" s="85"/>
       <c r="B359" s="43" t="s">
         <v>711</v>
       </c>
@@ -37472,7 +37545,7 @@
       <c r="Z359" s="39"/>
     </row>
     <row r="360" spans="1:26" ht="199.5" customHeight="1">
-      <c r="A360" s="78" t="s">
+      <c r="A360" s="83" t="s">
         <v>712</v>
       </c>
       <c r="B360" s="43" t="s">
@@ -37484,7 +37557,7 @@
       <c r="F360" s="43" t="s">
         <v>1404</v>
       </c>
-      <c r="G360" s="71" t="s">
+      <c r="G360" s="87" t="s">
         <v>1405</v>
       </c>
       <c r="H360" s="39"/>
@@ -37508,7 +37581,7 @@
       <c r="Z360" s="39"/>
     </row>
     <row r="361" spans="1:26" ht="36">
-      <c r="A361" s="79"/>
+      <c r="A361" s="84"/>
       <c r="B361" s="43" t="s">
         <v>714</v>
       </c>
@@ -37518,7 +37591,7 @@
       <c r="F361" s="43" t="s">
         <v>1411</v>
       </c>
-      <c r="G361" s="72"/>
+      <c r="G361" s="89"/>
       <c r="H361" s="39"/>
       <c r="I361" s="39"/>
       <c r="J361" s="39"/>
@@ -37540,7 +37613,7 @@
       <c r="Z361" s="39"/>
     </row>
     <row r="362" spans="1:26" ht="84">
-      <c r="A362" s="79"/>
+      <c r="A362" s="84"/>
       <c r="B362" s="43" t="s">
         <v>715</v>
       </c>
@@ -37574,7 +37647,7 @@
       <c r="Z362" s="39"/>
     </row>
     <row r="363" spans="1:26" ht="336">
-      <c r="A363" s="79"/>
+      <c r="A363" s="84"/>
       <c r="B363" s="43" t="s">
         <v>716</v>
       </c>
@@ -37608,7 +37681,7 @@
       <c r="Z363" s="39"/>
     </row>
     <row r="364" spans="1:26" ht="96">
-      <c r="A364" s="79"/>
+      <c r="A364" s="84"/>
       <c r="B364" s="43" t="s">
         <v>717</v>
       </c>
@@ -37642,7 +37715,7 @@
       <c r="Z364" s="39"/>
     </row>
     <row r="365" spans="1:26" ht="120">
-      <c r="A365" s="79"/>
+      <c r="A365" s="84"/>
       <c r="B365" s="43" t="s">
         <v>718</v>
       </c>
@@ -37676,7 +37749,7 @@
       <c r="Z365" s="39"/>
     </row>
     <row r="366" spans="1:26" ht="156">
-      <c r="A366" s="80"/>
+      <c r="A366" s="85"/>
       <c r="B366" s="43" t="s">
         <v>719</v>
       </c>
@@ -37710,7 +37783,7 @@
       <c r="Z366" s="39"/>
     </row>
     <row r="367" spans="1:26" ht="201.75" customHeight="1">
-      <c r="A367" s="78" t="s">
+      <c r="A367" s="83" t="s">
         <v>720</v>
       </c>
       <c r="B367" s="43" t="s">
@@ -37722,7 +37795,7 @@
       <c r="F367" s="43" t="s">
         <v>1417</v>
       </c>
-      <c r="G367" s="71" t="s">
+      <c r="G367" s="87" t="s">
         <v>1423</v>
       </c>
       <c r="H367" s="39"/>
@@ -37746,7 +37819,7 @@
       <c r="Z367" s="39"/>
     </row>
     <row r="368" spans="1:26" ht="36">
-      <c r="A368" s="79"/>
+      <c r="A368" s="84"/>
       <c r="B368" s="43" t="s">
         <v>722</v>
       </c>
@@ -37756,7 +37829,7 @@
       <c r="F368" s="43" t="s">
         <v>1418</v>
       </c>
-      <c r="G368" s="72"/>
+      <c r="G368" s="89"/>
       <c r="H368" s="39"/>
       <c r="I368" s="39"/>
       <c r="J368" s="39"/>
@@ -37778,7 +37851,7 @@
       <c r="Z368" s="39"/>
     </row>
     <row r="369" spans="1:26" ht="216">
-      <c r="A369" s="79"/>
+      <c r="A369" s="84"/>
       <c r="B369" s="43" t="s">
         <v>723</v>
       </c>
@@ -37812,7 +37885,7 @@
       <c r="Z369" s="39"/>
     </row>
     <row r="370" spans="1:26" ht="48">
-      <c r="A370" s="79"/>
+      <c r="A370" s="84"/>
       <c r="B370" s="43" t="s">
         <v>724</v>
       </c>
@@ -37844,7 +37917,7 @@
       <c r="Z370" s="39"/>
     </row>
     <row r="371" spans="1:26" ht="276">
-      <c r="A371" s="79"/>
+      <c r="A371" s="84"/>
       <c r="B371" s="43" t="s">
         <v>725</v>
       </c>
@@ -37878,7 +37951,7 @@
       <c r="Z371" s="39"/>
     </row>
     <row r="372" spans="1:26" ht="240">
-      <c r="A372" s="79"/>
+      <c r="A372" s="84"/>
       <c r="B372" s="43" t="s">
         <v>726</v>
       </c>
@@ -37912,7 +37985,7 @@
       <c r="Z372" s="39"/>
     </row>
     <row r="373" spans="1:26" ht="36">
-      <c r="A373" s="80"/>
+      <c r="A373" s="85"/>
       <c r="B373" s="43" t="s">
         <v>727</v>
       </c>
@@ -37944,7 +38017,7 @@
       <c r="Z373" s="39"/>
     </row>
     <row r="374" spans="1:26" ht="36">
-      <c r="A374" s="78" t="s">
+      <c r="A374" s="83" t="s">
         <v>729</v>
       </c>
       <c r="B374" s="43" t="s">
@@ -37956,7 +38029,7 @@
       <c r="F374" s="43" t="s">
         <v>730</v>
       </c>
-      <c r="G374" s="71" t="s">
+      <c r="G374" s="87" t="s">
         <v>1427</v>
       </c>
       <c r="H374" s="39"/>
@@ -37980,7 +38053,7 @@
       <c r="Z374" s="39"/>
     </row>
     <row r="375" spans="1:26" ht="48">
-      <c r="A375" s="79"/>
+      <c r="A375" s="84"/>
       <c r="B375" s="43" t="s">
         <v>731</v>
       </c>
@@ -37990,7 +38063,7 @@
       <c r="F375" s="43" t="s">
         <v>732</v>
       </c>
-      <c r="G375" s="73"/>
+      <c r="G375" s="88"/>
       <c r="H375" s="39"/>
       <c r="I375" s="39"/>
       <c r="J375" s="39"/>
@@ -38012,7 +38085,7 @@
       <c r="Z375" s="39"/>
     </row>
     <row r="376" spans="1:26" ht="108.75" customHeight="1">
-      <c r="A376" s="79"/>
+      <c r="A376" s="84"/>
       <c r="B376" s="43" t="s">
         <v>733</v>
       </c>
@@ -38022,7 +38095,7 @@
       <c r="F376" s="43" t="s">
         <v>734</v>
       </c>
-      <c r="G376" s="73"/>
+      <c r="G376" s="88"/>
       <c r="H376" s="39"/>
       <c r="I376" s="39"/>
       <c r="J376" s="39"/>
@@ -38044,7 +38117,7 @@
       <c r="Z376" s="39"/>
     </row>
     <row r="377" spans="1:26" ht="84">
-      <c r="A377" s="80"/>
+      <c r="A377" s="85"/>
       <c r="B377" s="43" t="s">
         <v>735</v>
       </c>
@@ -38078,7 +38151,7 @@
       <c r="Z377" s="39"/>
     </row>
     <row r="378" spans="1:26" ht="108">
-      <c r="A378" s="78" t="s">
+      <c r="A378" s="83" t="s">
         <v>737</v>
       </c>
       <c r="B378" s="43" t="s">
@@ -38090,7 +38163,7 @@
       <c r="F378" s="43" t="s">
         <v>1429</v>
       </c>
-      <c r="G378" s="78" t="s">
+      <c r="G378" s="83" t="s">
         <v>1433</v>
       </c>
       <c r="H378" s="39"/>
@@ -38114,7 +38187,7 @@
       <c r="Z378" s="39"/>
     </row>
     <row r="379" spans="1:26" ht="48">
-      <c r="A379" s="79"/>
+      <c r="A379" s="84"/>
       <c r="B379" s="43" t="s">
         <v>1430</v>
       </c>
@@ -38124,7 +38197,7 @@
       <c r="F379" s="43" t="s">
         <v>1431</v>
       </c>
-      <c r="G379" s="79"/>
+      <c r="G379" s="84"/>
       <c r="H379" s="39"/>
       <c r="I379" s="39"/>
       <c r="J379" s="39"/>
@@ -38146,7 +38219,7 @@
       <c r="Z379" s="39"/>
     </row>
     <row r="380" spans="1:26" ht="48">
-      <c r="A380" s="80"/>
+      <c r="A380" s="85"/>
       <c r="B380" s="43" t="s">
         <v>739</v>
       </c>
@@ -38156,7 +38229,7 @@
       <c r="F380" s="43" t="s">
         <v>1432</v>
       </c>
-      <c r="G380" s="80"/>
+      <c r="G380" s="85"/>
       <c r="H380" s="39"/>
       <c r="I380" s="39"/>
       <c r="J380" s="39"/>
@@ -38178,7 +38251,7 @@
       <c r="Z380" s="39"/>
     </row>
     <row r="381" spans="1:26" ht="84">
-      <c r="A381" s="78" t="s">
+      <c r="A381" s="83" t="s">
         <v>740</v>
       </c>
       <c r="B381" s="43" t="s">
@@ -38190,7 +38263,7 @@
       <c r="F381" s="43" t="s">
         <v>1434</v>
       </c>
-      <c r="G381" s="78" t="s">
+      <c r="G381" s="83" t="s">
         <v>1437</v>
       </c>
       <c r="H381" s="39"/>
@@ -38214,7 +38287,7 @@
       <c r="Z381" s="39"/>
     </row>
     <row r="382" spans="1:26" ht="48">
-      <c r="A382" s="79"/>
+      <c r="A382" s="84"/>
       <c r="B382" s="43" t="s">
         <v>742</v>
       </c>
@@ -38224,7 +38297,7 @@
       <c r="F382" s="43" t="s">
         <v>1435</v>
       </c>
-      <c r="G382" s="79"/>
+      <c r="G382" s="84"/>
       <c r="H382" s="39"/>
       <c r="I382" s="39"/>
       <c r="J382" s="39"/>
@@ -38246,7 +38319,7 @@
       <c r="Z382" s="39"/>
     </row>
     <row r="383" spans="1:26" ht="156.75" customHeight="1">
-      <c r="A383" s="80"/>
+      <c r="A383" s="85"/>
       <c r="B383" s="43" t="s">
         <v>743</v>
       </c>
@@ -38256,7 +38329,7 @@
       <c r="F383" s="43" t="s">
         <v>1436</v>
       </c>
-      <c r="G383" s="80"/>
+      <c r="G383" s="85"/>
       <c r="H383" s="39"/>
       <c r="I383" s="39"/>
       <c r="J383" s="39"/>
@@ -38278,7 +38351,7 @@
       <c r="Z383" s="39"/>
     </row>
     <row r="384" spans="1:26" ht="36">
-      <c r="A384" s="78" t="s">
+      <c r="A384" s="83" t="s">
         <v>744</v>
       </c>
       <c r="B384" s="43" t="s">
@@ -38290,7 +38363,7 @@
       <c r="F384" s="43" t="s">
         <v>746</v>
       </c>
-      <c r="G384" s="78" t="s">
+      <c r="G384" s="83" t="s">
         <v>747</v>
       </c>
       <c r="H384" s="39"/>
@@ -38314,7 +38387,7 @@
       <c r="Z384" s="39"/>
     </row>
     <row r="385" spans="1:26" ht="36">
-      <c r="A385" s="79"/>
+      <c r="A385" s="84"/>
       <c r="B385" s="43" t="s">
         <v>748</v>
       </c>
@@ -38324,7 +38397,7 @@
       <c r="F385" s="43" t="s">
         <v>749</v>
       </c>
-      <c r="G385" s="79"/>
+      <c r="G385" s="84"/>
       <c r="H385" s="39"/>
       <c r="I385" s="39"/>
       <c r="J385" s="39"/>
@@ -38346,7 +38419,7 @@
       <c r="Z385" s="39"/>
     </row>
     <row r="386" spans="1:26" ht="36">
-      <c r="A386" s="79"/>
+      <c r="A386" s="84"/>
       <c r="B386" s="43" t="s">
         <v>750</v>
       </c>
@@ -38356,7 +38429,7 @@
       <c r="F386" s="43" t="s">
         <v>751</v>
       </c>
-      <c r="G386" s="79"/>
+      <c r="G386" s="84"/>
       <c r="H386" s="39"/>
       <c r="I386" s="39"/>
       <c r="J386" s="39"/>
@@ -38378,7 +38451,7 @@
       <c r="Z386" s="39"/>
     </row>
     <row r="387" spans="1:26" ht="24">
-      <c r="A387" s="79"/>
+      <c r="A387" s="84"/>
       <c r="B387" s="43" t="s">
         <v>752</v>
       </c>
@@ -38388,7 +38461,7 @@
       <c r="F387" s="43" t="s">
         <v>753</v>
       </c>
-      <c r="G387" s="79"/>
+      <c r="G387" s="84"/>
       <c r="H387" s="39"/>
       <c r="I387" s="39"/>
       <c r="J387" s="39"/>
@@ -38410,7 +38483,7 @@
       <c r="Z387" s="39"/>
     </row>
     <row r="388" spans="1:26" ht="36">
-      <c r="A388" s="79"/>
+      <c r="A388" s="84"/>
       <c r="B388" s="43" t="s">
         <v>754</v>
       </c>
@@ -38420,7 +38493,7 @@
       <c r="F388" s="43" t="s">
         <v>755</v>
       </c>
-      <c r="G388" s="79"/>
+      <c r="G388" s="84"/>
       <c r="H388" s="39"/>
       <c r="I388" s="39"/>
       <c r="J388" s="39"/>
@@ -38442,7 +38515,7 @@
       <c r="Z388" s="39"/>
     </row>
     <row r="389" spans="1:26" ht="36">
-      <c r="A389" s="79"/>
+      <c r="A389" s="84"/>
       <c r="B389" s="43" t="s">
         <v>756</v>
       </c>
@@ -38452,7 +38525,7 @@
       <c r="F389" s="43" t="s">
         <v>757</v>
       </c>
-      <c r="G389" s="79"/>
+      <c r="G389" s="84"/>
       <c r="H389" s="39"/>
       <c r="I389" s="39"/>
       <c r="J389" s="39"/>
@@ -38474,7 +38547,7 @@
       <c r="Z389" s="39"/>
     </row>
     <row r="390" spans="1:26" ht="36">
-      <c r="A390" s="79"/>
+      <c r="A390" s="84"/>
       <c r="B390" s="43" t="s">
         <v>758</v>
       </c>
@@ -38484,7 +38557,7 @@
       <c r="F390" s="43" t="s">
         <v>759</v>
       </c>
-      <c r="G390" s="79"/>
+      <c r="G390" s="84"/>
       <c r="H390" s="39"/>
       <c r="I390" s="39"/>
       <c r="J390" s="39"/>
@@ -38506,7 +38579,7 @@
       <c r="Z390" s="39"/>
     </row>
     <row r="391" spans="1:26" ht="36">
-      <c r="A391" s="80"/>
+      <c r="A391" s="85"/>
       <c r="B391" s="43" t="s">
         <v>760</v>
       </c>
@@ -38516,7 +38589,7 @@
       <c r="F391" s="43" t="s">
         <v>761</v>
       </c>
-      <c r="G391" s="80"/>
+      <c r="G391" s="85"/>
       <c r="H391" s="39"/>
       <c r="I391" s="39"/>
       <c r="J391" s="39"/>
@@ -38538,7 +38611,7 @@
       <c r="Z391" s="39"/>
     </row>
     <row r="392" spans="1:26" ht="48">
-      <c r="A392" s="78" t="s">
+      <c r="A392" s="83" t="s">
         <v>762</v>
       </c>
       <c r="B392" s="43" t="s">
@@ -38572,7 +38645,7 @@
       <c r="Z392" s="39"/>
     </row>
     <row r="393" spans="1:26" ht="36">
-      <c r="A393" s="79"/>
+      <c r="A393" s="84"/>
       <c r="B393" s="43" t="s">
         <v>765</v>
       </c>
@@ -38606,7 +38679,7 @@
       <c r="Z393" s="39"/>
     </row>
     <row r="394" spans="1:26" ht="36">
-      <c r="A394" s="79"/>
+      <c r="A394" s="84"/>
       <c r="B394" s="43" t="s">
         <v>768</v>
       </c>
@@ -38640,7 +38713,7 @@
       <c r="Z394" s="39"/>
     </row>
     <row r="395" spans="1:26" ht="48">
-      <c r="A395" s="79"/>
+      <c r="A395" s="84"/>
       <c r="B395" s="43" t="s">
         <v>771</v>
       </c>
@@ -38674,7 +38747,7 @@
       <c r="Z395" s="39"/>
     </row>
     <row r="396" spans="1:26" ht="36">
-      <c r="A396" s="79"/>
+      <c r="A396" s="84"/>
       <c r="B396" s="43" t="s">
         <v>774</v>
       </c>
@@ -38708,7 +38781,7 @@
       <c r="Z396" s="39"/>
     </row>
     <row r="397" spans="1:26" ht="24">
-      <c r="A397" s="79"/>
+      <c r="A397" s="84"/>
       <c r="B397" s="43" t="s">
         <v>777</v>
       </c>
@@ -38740,7 +38813,7 @@
       <c r="Z397" s="39"/>
     </row>
     <row r="398" spans="1:26" ht="36">
-      <c r="A398" s="80"/>
+      <c r="A398" s="85"/>
       <c r="B398" s="43" t="s">
         <v>779</v>
       </c>
@@ -38772,7 +38845,7 @@
       <c r="Z398" s="39"/>
     </row>
     <row r="399" spans="1:26" ht="108">
-      <c r="A399" s="78" t="s">
+      <c r="A399" s="83" t="s">
         <v>781</v>
       </c>
       <c r="B399" s="43" t="s">
@@ -38784,7 +38857,7 @@
       <c r="F399" s="43" t="s">
         <v>920</v>
       </c>
-      <c r="G399" s="78" t="s">
+      <c r="G399" s="83" t="s">
         <v>783</v>
       </c>
       <c r="H399" s="39"/>
@@ -38808,7 +38881,7 @@
       <c r="Z399" s="39"/>
     </row>
     <row r="400" spans="1:26" ht="36">
-      <c r="A400" s="80"/>
+      <c r="A400" s="85"/>
       <c r="B400" s="43" t="s">
         <v>784</v>
       </c>
@@ -38818,7 +38891,7 @@
       <c r="F400" s="43" t="s">
         <v>785</v>
       </c>
-      <c r="G400" s="80"/>
+      <c r="G400" s="85"/>
       <c r="H400" s="39"/>
       <c r="I400" s="39"/>
       <c r="J400" s="39"/>
@@ -38912,7 +38985,7 @@
       <c r="Z402" s="39"/>
     </row>
     <row r="403" spans="1:26" ht="36">
-      <c r="A403" s="78" t="s">
+      <c r="A403" s="83" t="s">
         <v>794</v>
       </c>
       <c r="B403" s="43" t="s">
@@ -38924,7 +38997,7 @@
       <c r="F403" s="43" t="s">
         <v>796</v>
       </c>
-      <c r="G403" s="71" t="s">
+      <c r="G403" s="87" t="s">
         <v>797</v>
       </c>
       <c r="H403" s="39"/>
@@ -38948,7 +39021,7 @@
       <c r="Z403" s="39"/>
     </row>
     <row r="404" spans="1:26" ht="24">
-      <c r="A404" s="79"/>
+      <c r="A404" s="84"/>
       <c r="B404" s="43" t="s">
         <v>777</v>
       </c>
@@ -38958,7 +39031,7 @@
       <c r="F404" s="43" t="s">
         <v>798</v>
       </c>
-      <c r="G404" s="73"/>
+      <c r="G404" s="88"/>
       <c r="H404" s="39"/>
       <c r="I404" s="39"/>
       <c r="J404" s="39"/>
@@ -38980,7 +39053,7 @@
       <c r="Z404" s="39"/>
     </row>
     <row r="405" spans="1:26" ht="204">
-      <c r="A405" s="80"/>
+      <c r="A405" s="85"/>
       <c r="B405" s="43" t="s">
         <v>799</v>
       </c>
@@ -39014,7 +39087,7 @@
       <c r="Z405" s="39"/>
     </row>
     <row r="406" spans="1:26" ht="288">
-      <c r="A406" s="71" t="s">
+      <c r="A406" s="87" t="s">
         <v>800</v>
       </c>
       <c r="B406" s="43" t="s">
@@ -39050,7 +39123,7 @@
       <c r="Z406" s="39"/>
     </row>
     <row r="407" spans="1:26" ht="36">
-      <c r="A407" s="73"/>
+      <c r="A407" s="88"/>
       <c r="B407" s="43" t="s">
         <v>801</v>
       </c>
@@ -39060,7 +39133,7 @@
       <c r="F407" s="43" t="s">
         <v>923</v>
       </c>
-      <c r="G407" s="78" t="s">
+      <c r="G407" s="83" t="s">
         <v>924</v>
       </c>
       <c r="H407" s="39"/>
@@ -39084,7 +39157,7 @@
       <c r="Z407" s="39"/>
     </row>
     <row r="408" spans="1:26" ht="120">
-      <c r="A408" s="72"/>
+      <c r="A408" s="89"/>
       <c r="B408" s="43" t="s">
         <v>802</v>
       </c>
@@ -39094,7 +39167,7 @@
       <c r="F408" s="43" t="s">
         <v>925</v>
       </c>
-      <c r="G408" s="80"/>
+      <c r="G408" s="85"/>
       <c r="H408" s="39"/>
       <c r="I408" s="39"/>
       <c r="J408" s="39"/>
@@ -39116,7 +39189,7 @@
       <c r="Z408" s="39"/>
     </row>
     <row r="409" spans="1:26" ht="24">
-      <c r="A409" s="78" t="s">
+      <c r="A409" s="83" t="s">
         <v>803</v>
       </c>
       <c r="B409" s="43" t="s">
@@ -39128,7 +39201,7 @@
       <c r="F409" s="43" t="s">
         <v>805</v>
       </c>
-      <c r="G409" s="78" t="s">
+      <c r="G409" s="83" t="s">
         <v>806</v>
       </c>
       <c r="H409" s="39"/>
@@ -39152,7 +39225,7 @@
       <c r="Z409" s="39"/>
     </row>
     <row r="410" spans="1:26" ht="24">
-      <c r="A410" s="79"/>
+      <c r="A410" s="84"/>
       <c r="B410" s="43" t="s">
         <v>771</v>
       </c>
@@ -39162,7 +39235,7 @@
       <c r="F410" s="43" t="s">
         <v>807</v>
       </c>
-      <c r="G410" s="79"/>
+      <c r="G410" s="84"/>
       <c r="H410" s="39"/>
       <c r="I410" s="39"/>
       <c r="J410" s="39"/>
@@ -39184,7 +39257,7 @@
       <c r="Z410" s="39"/>
     </row>
     <row r="411" spans="1:26">
-      <c r="A411" s="79"/>
+      <c r="A411" s="84"/>
       <c r="B411" s="43" t="s">
         <v>808</v>
       </c>
@@ -39194,7 +39267,7 @@
       <c r="F411" s="43" t="s">
         <v>809</v>
       </c>
-      <c r="G411" s="79"/>
+      <c r="G411" s="84"/>
       <c r="H411" s="39"/>
       <c r="I411" s="39"/>
       <c r="J411" s="39"/>
@@ -39216,7 +39289,7 @@
       <c r="Z411" s="39"/>
     </row>
     <row r="412" spans="1:26" ht="24">
-      <c r="A412" s="79"/>
+      <c r="A412" s="84"/>
       <c r="B412" s="43" t="s">
         <v>810</v>
       </c>
@@ -39226,7 +39299,7 @@
       <c r="F412" s="43" t="s">
         <v>811</v>
       </c>
-      <c r="G412" s="79"/>
+      <c r="G412" s="84"/>
       <c r="H412" s="39"/>
       <c r="I412" s="39"/>
       <c r="J412" s="39"/>
@@ -39248,7 +39321,7 @@
       <c r="Z412" s="39"/>
     </row>
     <row r="413" spans="1:26" ht="24">
-      <c r="A413" s="79"/>
+      <c r="A413" s="84"/>
       <c r="B413" s="43" t="s">
         <v>812</v>
       </c>
@@ -39258,7 +39331,7 @@
       <c r="F413" s="43" t="s">
         <v>813</v>
       </c>
-      <c r="G413" s="80"/>
+      <c r="G413" s="85"/>
       <c r="H413" s="39"/>
       <c r="I413" s="39"/>
       <c r="J413" s="39"/>
@@ -39280,7 +39353,7 @@
       <c r="Z413" s="39"/>
     </row>
     <row r="414" spans="1:26" ht="409.5">
-      <c r="A414" s="79"/>
+      <c r="A414" s="84"/>
       <c r="B414" s="43" t="s">
         <v>814</v>
       </c>
@@ -39314,7 +39387,7 @@
       <c r="Z414" s="39"/>
     </row>
     <row r="415" spans="1:26" ht="48">
-      <c r="A415" s="79"/>
+      <c r="A415" s="84"/>
       <c r="B415" s="43" t="s">
         <v>817</v>
       </c>
@@ -39324,7 +39397,7 @@
       <c r="F415" s="43" t="s">
         <v>818</v>
       </c>
-      <c r="G415" s="71" t="s">
+      <c r="G415" s="87" t="s">
         <v>926</v>
       </c>
       <c r="H415" s="39"/>
@@ -39348,7 +39421,7 @@
       <c r="Z415" s="39"/>
     </row>
     <row r="416" spans="1:26" ht="48">
-      <c r="A416" s="79"/>
+      <c r="A416" s="84"/>
       <c r="B416" s="43" t="s">
         <v>819</v>
       </c>
@@ -39358,7 +39431,7 @@
       <c r="F416" s="43" t="s">
         <v>820</v>
       </c>
-      <c r="G416" s="73"/>
+      <c r="G416" s="88"/>
       <c r="H416" s="39"/>
       <c r="I416" s="39"/>
       <c r="J416" s="39"/>
@@ -39380,7 +39453,7 @@
       <c r="Z416" s="39"/>
     </row>
     <row r="417" spans="1:26" ht="36">
-      <c r="A417" s="79"/>
+      <c r="A417" s="84"/>
       <c r="B417" s="43" t="s">
         <v>821</v>
       </c>
@@ -39390,7 +39463,7 @@
       <c r="F417" s="43" t="s">
         <v>822</v>
       </c>
-      <c r="G417" s="73"/>
+      <c r="G417" s="88"/>
       <c r="H417" s="39"/>
       <c r="I417" s="39"/>
       <c r="J417" s="39"/>
@@ -39412,7 +39485,7 @@
       <c r="Z417" s="39"/>
     </row>
     <row r="418" spans="1:26" ht="48">
-      <c r="A418" s="79"/>
+      <c r="A418" s="84"/>
       <c r="B418" s="43" t="s">
         <v>823</v>
       </c>
@@ -39444,7 +39517,7 @@
       <c r="Z418" s="39"/>
     </row>
     <row r="419" spans="1:26" ht="409.5">
-      <c r="A419" s="79"/>
+      <c r="A419" s="84"/>
       <c r="B419" s="43" t="s">
         <v>825</v>
       </c>
@@ -39478,7 +39551,7 @@
       <c r="Z419" s="39"/>
     </row>
     <row r="420" spans="1:26" ht="36">
-      <c r="A420" s="79"/>
+      <c r="A420" s="84"/>
       <c r="B420" s="43" t="s">
         <v>827</v>
       </c>
@@ -39510,7 +39583,7 @@
       <c r="Z420" s="39"/>
     </row>
     <row r="421" spans="1:26" ht="36">
-      <c r="A421" s="80"/>
+      <c r="A421" s="85"/>
       <c r="B421" s="43" t="s">
         <v>829</v>
       </c>
@@ -39542,7 +39615,7 @@
       <c r="Z421" s="39"/>
     </row>
     <row r="422" spans="1:26" ht="24">
-      <c r="A422" s="78" t="s">
+      <c r="A422" s="83" t="s">
         <v>831</v>
       </c>
       <c r="B422" s="43" t="s">
@@ -39554,7 +39627,7 @@
       <c r="F422" s="43" t="s">
         <v>833</v>
       </c>
-      <c r="G422" s="78" t="s">
+      <c r="G422" s="83" t="s">
         <v>834</v>
       </c>
       <c r="H422" s="39"/>
@@ -39578,7 +39651,7 @@
       <c r="Z422" s="39"/>
     </row>
     <row r="423" spans="1:26" ht="48">
-      <c r="A423" s="79"/>
+      <c r="A423" s="84"/>
       <c r="B423" s="43" t="s">
         <v>835</v>
       </c>
@@ -39588,7 +39661,7 @@
       <c r="F423" s="43" t="s">
         <v>836</v>
       </c>
-      <c r="G423" s="79"/>
+      <c r="G423" s="84"/>
       <c r="H423" s="39"/>
       <c r="I423" s="39"/>
       <c r="J423" s="39"/>
@@ -39610,7 +39683,7 @@
       <c r="Z423" s="39"/>
     </row>
     <row r="424" spans="1:26" ht="36">
-      <c r="A424" s="79"/>
+      <c r="A424" s="84"/>
       <c r="B424" s="43" t="s">
         <v>837</v>
       </c>
@@ -39620,7 +39693,7 @@
       <c r="F424" s="43" t="s">
         <v>838</v>
       </c>
-      <c r="G424" s="79"/>
+      <c r="G424" s="84"/>
       <c r="H424" s="39"/>
       <c r="I424" s="39"/>
       <c r="J424" s="39"/>
@@ -39642,7 +39715,7 @@
       <c r="Z424" s="39"/>
     </row>
     <row r="425" spans="1:26" ht="48">
-      <c r="A425" s="79"/>
+      <c r="A425" s="84"/>
       <c r="B425" s="43" t="s">
         <v>839</v>
       </c>
@@ -39652,7 +39725,7 @@
       <c r="F425" s="43" t="s">
         <v>840</v>
       </c>
-      <c r="G425" s="79"/>
+      <c r="G425" s="84"/>
       <c r="H425" s="39"/>
       <c r="I425" s="39"/>
       <c r="J425" s="39"/>
@@ -39674,7 +39747,7 @@
       <c r="Z425" s="39"/>
     </row>
     <row r="426" spans="1:26" ht="36">
-      <c r="A426" s="79"/>
+      <c r="A426" s="84"/>
       <c r="B426" s="43" t="s">
         <v>841</v>
       </c>
@@ -39684,7 +39757,7 @@
       <c r="F426" s="43" t="s">
         <v>842</v>
       </c>
-      <c r="G426" s="80"/>
+      <c r="G426" s="85"/>
       <c r="H426" s="39"/>
       <c r="I426" s="39"/>
       <c r="J426" s="39"/>
@@ -39706,7 +39779,7 @@
       <c r="Z426" s="39"/>
     </row>
     <row r="427" spans="1:26" ht="48">
-      <c r="A427" s="79"/>
+      <c r="A427" s="84"/>
       <c r="B427" s="43" t="s">
         <v>843</v>
       </c>
@@ -39740,7 +39813,7 @@
       <c r="Z427" s="39"/>
     </row>
     <row r="428" spans="1:26" ht="36">
-      <c r="A428" s="79"/>
+      <c r="A428" s="84"/>
       <c r="B428" s="43" t="s">
         <v>846</v>
       </c>
@@ -39774,7 +39847,7 @@
       <c r="Z428" s="39"/>
     </row>
     <row r="429" spans="1:26" ht="264">
-      <c r="A429" s="79"/>
+      <c r="A429" s="84"/>
       <c r="B429" s="43" t="s">
         <v>849</v>
       </c>
@@ -39808,7 +39881,7 @@
       <c r="Z429" s="39"/>
     </row>
     <row r="430" spans="1:26" ht="409.5">
-      <c r="A430" s="79"/>
+      <c r="A430" s="84"/>
       <c r="B430" s="43" t="s">
         <v>850</v>
       </c>
@@ -39842,7 +39915,7 @@
       <c r="Z430" s="39"/>
     </row>
     <row r="431" spans="1:26" ht="348">
-      <c r="A431" s="80"/>
+      <c r="A431" s="85"/>
       <c r="B431" s="43" t="s">
         <v>851</v>
       </c>
@@ -39876,7 +39949,7 @@
       <c r="Z431" s="39"/>
     </row>
     <row r="432" spans="1:26" ht="409.5">
-      <c r="A432" s="78" t="s">
+      <c r="A432" s="83" t="s">
         <v>852</v>
       </c>
       <c r="B432" s="43" t="s">
@@ -39912,7 +39985,7 @@
       <c r="Z432" s="39"/>
     </row>
     <row r="433" spans="1:26" ht="36">
-      <c r="A433" s="79"/>
+      <c r="A433" s="84"/>
       <c r="B433" s="43" t="s">
         <v>855</v>
       </c>
@@ -39922,7 +39995,7 @@
       <c r="F433" s="43" t="s">
         <v>856</v>
       </c>
-      <c r="G433" s="71" t="s">
+      <c r="G433" s="87" t="s">
         <v>854</v>
       </c>
       <c r="H433" s="39"/>
@@ -39946,7 +40019,7 @@
       <c r="Z433" s="39"/>
     </row>
     <row r="434" spans="1:26" ht="108">
-      <c r="A434" s="79"/>
+      <c r="A434" s="84"/>
       <c r="B434" s="43" t="s">
         <v>857</v>
       </c>
@@ -39956,7 +40029,7 @@
       <c r="F434" s="43" t="s">
         <v>858</v>
       </c>
-      <c r="G434" s="72"/>
+      <c r="G434" s="89"/>
       <c r="H434" s="39"/>
       <c r="I434" s="39"/>
       <c r="J434" s="39"/>
@@ -39978,7 +40051,7 @@
       <c r="Z434" s="39"/>
     </row>
     <row r="435" spans="1:26" ht="36">
-      <c r="A435" s="79"/>
+      <c r="A435" s="84"/>
       <c r="B435" s="43" t="s">
         <v>855</v>
       </c>
@@ -39988,7 +40061,7 @@
       <c r="F435" s="43" t="s">
         <v>859</v>
       </c>
-      <c r="G435" s="78" t="s">
+      <c r="G435" s="83" t="s">
         <v>860</v>
       </c>
       <c r="H435" s="39"/>
@@ -40012,7 +40085,7 @@
       <c r="Z435" s="39"/>
     </row>
     <row r="436" spans="1:26" ht="96">
-      <c r="A436" s="79"/>
+      <c r="A436" s="84"/>
       <c r="B436" s="43" t="s">
         <v>857</v>
       </c>
@@ -40022,7 +40095,7 @@
       <c r="F436" s="43" t="s">
         <v>861</v>
       </c>
-      <c r="G436" s="79"/>
+      <c r="G436" s="84"/>
       <c r="H436" s="39"/>
       <c r="I436" s="39"/>
       <c r="J436" s="39"/>
@@ -40044,7 +40117,7 @@
       <c r="Z436" s="39"/>
     </row>
     <row r="437" spans="1:26" ht="60">
-      <c r="A437" s="79"/>
+      <c r="A437" s="84"/>
       <c r="B437" s="43" t="s">
         <v>862</v>
       </c>
@@ -40054,7 +40127,7 @@
       <c r="F437" s="43" t="s">
         <v>863</v>
       </c>
-      <c r="G437" s="80"/>
+      <c r="G437" s="85"/>
       <c r="H437" s="39"/>
       <c r="I437" s="39"/>
       <c r="J437" s="39"/>
@@ -40076,7 +40149,7 @@
       <c r="Z437" s="39"/>
     </row>
     <row r="438" spans="1:26" ht="84">
-      <c r="A438" s="79"/>
+      <c r="A438" s="84"/>
       <c r="B438" s="43" t="s">
         <v>864</v>
       </c>
@@ -40086,7 +40159,7 @@
       <c r="F438" s="43" t="s">
         <v>865</v>
       </c>
-      <c r="G438" s="78" t="s">
+      <c r="G438" s="83" t="s">
         <v>866</v>
       </c>
       <c r="H438" s="39"/>
@@ -40110,7 +40183,7 @@
       <c r="Z438" s="39"/>
     </row>
     <row r="439" spans="1:26" ht="48">
-      <c r="A439" s="79"/>
+      <c r="A439" s="84"/>
       <c r="B439" s="43" t="s">
         <v>867</v>
       </c>
@@ -40120,7 +40193,7 @@
       <c r="F439" s="43" t="s">
         <v>868</v>
       </c>
-      <c r="G439" s="79"/>
+      <c r="G439" s="84"/>
       <c r="H439" s="39"/>
       <c r="I439" s="39"/>
       <c r="J439" s="39"/>
@@ -40142,7 +40215,7 @@
       <c r="Z439" s="39"/>
     </row>
     <row r="440" spans="1:26" ht="60">
-      <c r="A440" s="79"/>
+      <c r="A440" s="84"/>
       <c r="B440" s="43" t="s">
         <v>869</v>
       </c>
@@ -40152,7 +40225,7 @@
       <c r="F440" s="43" t="s">
         <v>870</v>
       </c>
-      <c r="G440" s="79"/>
+      <c r="G440" s="84"/>
       <c r="H440" s="39"/>
       <c r="I440" s="39"/>
       <c r="J440" s="39"/>
@@ -40174,7 +40247,7 @@
       <c r="Z440" s="39"/>
     </row>
     <row r="441" spans="1:26" ht="48">
-      <c r="A441" s="79"/>
+      <c r="A441" s="84"/>
       <c r="B441" s="43" t="s">
         <v>871</v>
       </c>
@@ -40184,7 +40257,7 @@
       <c r="F441" s="43" t="s">
         <v>872</v>
       </c>
-      <c r="G441" s="79"/>
+      <c r="G441" s="84"/>
       <c r="H441" s="39"/>
       <c r="I441" s="39"/>
       <c r="J441" s="39"/>
@@ -40206,7 +40279,7 @@
       <c r="Z441" s="39"/>
     </row>
     <row r="442" spans="1:26" ht="36">
-      <c r="A442" s="79"/>
+      <c r="A442" s="84"/>
       <c r="B442" s="43" t="s">
         <v>873</v>
       </c>
@@ -40216,7 +40289,7 @@
       <c r="F442" s="43" t="s">
         <v>874</v>
       </c>
-      <c r="G442" s="79"/>
+      <c r="G442" s="84"/>
       <c r="H442" s="39"/>
       <c r="I442" s="39"/>
       <c r="J442" s="39"/>
@@ -40238,7 +40311,7 @@
       <c r="Z442" s="39"/>
     </row>
     <row r="443" spans="1:26" ht="36">
-      <c r="A443" s="79"/>
+      <c r="A443" s="84"/>
       <c r="B443" s="43" t="s">
         <v>875</v>
       </c>
@@ -40248,7 +40321,7 @@
       <c r="F443" s="43" t="s">
         <v>876</v>
       </c>
-      <c r="G443" s="79"/>
+      <c r="G443" s="84"/>
       <c r="H443" s="39"/>
       <c r="I443" s="39"/>
       <c r="J443" s="39"/>
@@ -40270,7 +40343,7 @@
       <c r="Z443" s="39"/>
     </row>
     <row r="444" spans="1:26" ht="72">
-      <c r="A444" s="79"/>
+      <c r="A444" s="84"/>
       <c r="B444" s="54" t="s">
         <v>877</v>
       </c>
@@ -40280,7 +40353,7 @@
       <c r="F444" s="54" t="s">
         <v>878</v>
       </c>
-      <c r="G444" s="79"/>
+      <c r="G444" s="84"/>
       <c r="H444" s="39"/>
       <c r="I444" s="39"/>
       <c r="J444" s="39"/>
@@ -40302,7 +40375,7 @@
       <c r="Z444" s="39"/>
     </row>
     <row r="445" spans="1:26" ht="24">
-      <c r="A445" s="76" t="s">
+      <c r="A445" s="90" t="s">
         <v>936</v>
       </c>
       <c r="B445" s="59" t="s">
@@ -40314,7 +40387,7 @@
       <c r="F445" s="59" t="s">
         <v>938</v>
       </c>
-      <c r="G445" s="74" t="s">
+      <c r="G445" s="92" t="s">
         <v>1256</v>
       </c>
       <c r="H445" s="39"/>
@@ -40338,7 +40411,7 @@
       <c r="Z445" s="39"/>
     </row>
     <row r="446" spans="1:26" ht="24">
-      <c r="A446" s="76"/>
+      <c r="A446" s="90"/>
       <c r="B446" s="59" t="s">
         <v>939</v>
       </c>
@@ -40348,7 +40421,7 @@
       <c r="F446" s="61" t="s">
         <v>940</v>
       </c>
-      <c r="G446" s="75"/>
+      <c r="G446" s="93"/>
       <c r="H446" s="39"/>
       <c r="I446" s="39"/>
       <c r="J446" s="39"/>
@@ -40370,7 +40443,7 @@
       <c r="Z446" s="39"/>
     </row>
     <row r="447" spans="1:26">
-      <c r="A447" s="76"/>
+      <c r="A447" s="90"/>
       <c r="B447" s="59" t="s">
         <v>941</v>
       </c>
@@ -40380,7 +40453,7 @@
       <c r="F447" s="59" t="s">
         <v>942</v>
       </c>
-      <c r="G447" s="75"/>
+      <c r="G447" s="93"/>
       <c r="H447" s="39"/>
       <c r="I447" s="39"/>
       <c r="J447" s="39"/>
@@ -40402,7 +40475,7 @@
       <c r="Z447" s="39"/>
     </row>
     <row r="448" spans="1:26">
-      <c r="A448" s="76"/>
+      <c r="A448" s="90"/>
       <c r="B448" s="59" t="s">
         <v>943</v>
       </c>
@@ -40412,7 +40485,7 @@
       <c r="F448" s="59" t="s">
         <v>944</v>
       </c>
-      <c r="G448" s="75"/>
+      <c r="G448" s="93"/>
       <c r="H448" s="39"/>
       <c r="I448" s="39"/>
       <c r="J448" s="39"/>
@@ -40434,7 +40507,7 @@
       <c r="Z448" s="39"/>
     </row>
     <row r="449" spans="1:26" ht="36">
-      <c r="A449" s="76"/>
+      <c r="A449" s="90"/>
       <c r="B449" s="59" t="s">
         <v>945</v>
       </c>
@@ -40444,7 +40517,7 @@
       <c r="F449" s="59" t="s">
         <v>946</v>
       </c>
-      <c r="G449" s="75"/>
+      <c r="G449" s="93"/>
       <c r="H449" s="39"/>
       <c r="I449" s="39"/>
       <c r="J449" s="39"/>
@@ -40466,7 +40539,7 @@
       <c r="Z449" s="39"/>
     </row>
     <row r="450" spans="1:26" ht="24">
-      <c r="A450" s="76"/>
+      <c r="A450" s="90"/>
       <c r="B450" s="59" t="s">
         <v>947</v>
       </c>
@@ -40476,7 +40549,7 @@
       <c r="F450" s="59" t="s">
         <v>948</v>
       </c>
-      <c r="G450" s="75"/>
+      <c r="G450" s="93"/>
       <c r="H450" s="39"/>
       <c r="I450" s="39"/>
       <c r="J450" s="39"/>
@@ -40498,7 +40571,7 @@
       <c r="Z450" s="39"/>
     </row>
     <row r="451" spans="1:26" ht="36">
-      <c r="A451" s="76"/>
+      <c r="A451" s="90"/>
       <c r="B451" s="59" t="s">
         <v>949</v>
       </c>
@@ -40508,7 +40581,7 @@
       <c r="F451" s="59" t="s">
         <v>950</v>
       </c>
-      <c r="G451" s="75"/>
+      <c r="G451" s="93"/>
       <c r="H451" s="39"/>
       <c r="I451" s="39"/>
       <c r="J451" s="39"/>
@@ -40530,7 +40603,7 @@
       <c r="Z451" s="39"/>
     </row>
     <row r="452" spans="1:26" ht="24">
-      <c r="A452" s="76"/>
+      <c r="A452" s="90"/>
       <c r="B452" s="59" t="s">
         <v>951</v>
       </c>
@@ -40540,7 +40613,7 @@
       <c r="F452" s="59" t="s">
         <v>952</v>
       </c>
-      <c r="G452" s="75"/>
+      <c r="G452" s="93"/>
       <c r="H452" s="39"/>
       <c r="I452" s="39"/>
       <c r="J452" s="39"/>
@@ -40562,7 +40635,7 @@
       <c r="Z452" s="39"/>
     </row>
     <row r="453" spans="1:26">
-      <c r="A453" s="76"/>
+      <c r="A453" s="90"/>
       <c r="B453" s="59" t="s">
         <v>953</v>
       </c>
@@ -40572,7 +40645,7 @@
       <c r="F453" s="59" t="s">
         <v>954</v>
       </c>
-      <c r="G453" s="75"/>
+      <c r="G453" s="93"/>
       <c r="H453" s="39"/>
       <c r="I453" s="39"/>
       <c r="J453" s="39"/>
@@ -40594,7 +40667,7 @@
       <c r="Z453" s="39"/>
     </row>
     <row r="454" spans="1:26" ht="24">
-      <c r="A454" s="76"/>
+      <c r="A454" s="90"/>
       <c r="B454" s="59" t="s">
         <v>955</v>
       </c>
@@ -40604,7 +40677,7 @@
       <c r="F454" s="59" t="s">
         <v>956</v>
       </c>
-      <c r="G454" s="75"/>
+      <c r="G454" s="93"/>
       <c r="H454" s="39"/>
       <c r="I454" s="39"/>
       <c r="J454" s="39"/>
@@ -40626,7 +40699,7 @@
       <c r="Z454" s="39"/>
     </row>
     <row r="455" spans="1:26">
-      <c r="A455" s="76"/>
+      <c r="A455" s="90"/>
       <c r="B455" s="59" t="s">
         <v>957</v>
       </c>
@@ -40636,7 +40709,7 @@
       <c r="F455" s="59" t="s">
         <v>958</v>
       </c>
-      <c r="G455" s="75"/>
+      <c r="G455" s="93"/>
       <c r="H455" s="39"/>
       <c r="I455" s="39"/>
       <c r="J455" s="39"/>
@@ -40658,7 +40731,7 @@
       <c r="Z455" s="39"/>
     </row>
     <row r="456" spans="1:26" ht="24">
-      <c r="A456" s="76"/>
+      <c r="A456" s="90"/>
       <c r="B456" s="59" t="s">
         <v>1257</v>
       </c>
@@ -40668,7 +40741,7 @@
       <c r="F456" s="59" t="s">
         <v>1258</v>
       </c>
-      <c r="G456" s="74" t="s">
+      <c r="G456" s="92" t="s">
         <v>1261</v>
       </c>
       <c r="H456" s="39"/>
@@ -40692,7 +40765,7 @@
       <c r="Z456" s="39"/>
     </row>
     <row r="457" spans="1:26" ht="36">
-      <c r="A457" s="76"/>
+      <c r="A457" s="90"/>
       <c r="B457" s="59" t="s">
         <v>1259</v>
       </c>
@@ -40702,7 +40775,7 @@
       <c r="F457" s="59" t="s">
         <v>1260</v>
       </c>
-      <c r="G457" s="74"/>
+      <c r="G457" s="92"/>
       <c r="H457" s="39"/>
       <c r="I457" s="39"/>
       <c r="J457" s="39"/>
@@ -40724,7 +40797,7 @@
       <c r="Z457" s="39"/>
     </row>
     <row r="458" spans="1:26" ht="77.25" customHeight="1">
-      <c r="A458" s="76"/>
+      <c r="A458" s="90"/>
       <c r="B458" s="59" t="s">
         <v>951</v>
       </c>
@@ -40758,7 +40831,7 @@
       <c r="Z458" s="39"/>
     </row>
     <row r="459" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A459" s="76"/>
+      <c r="A459" s="90"/>
       <c r="B459" s="59" t="s">
         <v>1264</v>
       </c>
@@ -40792,7 +40865,7 @@
       <c r="Z459" s="39"/>
     </row>
     <row r="460" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A460" s="76"/>
+      <c r="A460" s="90"/>
       <c r="B460" s="59" t="s">
         <v>1267</v>
       </c>
@@ -40826,7 +40899,7 @@
       <c r="Z460" s="39"/>
     </row>
     <row r="461" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A461" s="76"/>
+      <c r="A461" s="90"/>
       <c r="B461" s="59" t="s">
         <v>1270</v>
       </c>
@@ -40860,7 +40933,7 @@
       <c r="Z461" s="39"/>
     </row>
     <row r="462" spans="1:26" ht="60">
-      <c r="A462" s="76"/>
+      <c r="A462" s="90"/>
       <c r="B462" s="59" t="s">
         <v>1273</v>
       </c>
@@ -40894,7 +40967,7 @@
       <c r="Z462" s="39"/>
     </row>
     <row r="463" spans="1:26" ht="33" customHeight="1">
-      <c r="A463" s="76"/>
+      <c r="A463" s="90"/>
       <c r="B463" s="59" t="s">
         <v>1276</v>
       </c>
@@ -40928,7 +41001,7 @@
       <c r="Z463" s="39"/>
     </row>
     <row r="464" spans="1:26" ht="84">
-      <c r="A464" s="77" t="s">
+      <c r="A464" s="91" t="s">
         <v>1281</v>
       </c>
       <c r="B464" s="59" t="s">
@@ -40964,7 +41037,7 @@
       <c r="Z464" s="39"/>
     </row>
     <row r="465" spans="1:26" ht="84">
-      <c r="A465" s="77"/>
+      <c r="A465" s="91"/>
       <c r="B465" s="59" t="s">
         <v>1283</v>
       </c>
@@ -40998,7 +41071,7 @@
       <c r="Z465" s="39"/>
     </row>
     <row r="466" spans="1:26" ht="36">
-      <c r="A466" s="77"/>
+      <c r="A466" s="91"/>
       <c r="B466" s="59" t="s">
         <v>1286</v>
       </c>
@@ -41032,7 +41105,7 @@
       <c r="Z466" s="39"/>
     </row>
     <row r="467" spans="1:26" ht="36">
-      <c r="A467" s="77"/>
+      <c r="A467" s="91"/>
       <c r="B467" s="59" t="s">
         <v>1289</v>
       </c>
@@ -41066,7 +41139,7 @@
       <c r="Z467" s="39"/>
     </row>
     <row r="468" spans="1:26" ht="96">
-      <c r="A468" s="77"/>
+      <c r="A468" s="91"/>
       <c r="B468" s="59" t="s">
         <v>1292</v>
       </c>
@@ -41100,7 +41173,7 @@
       <c r="Z468" s="39"/>
     </row>
     <row r="469" spans="1:26" ht="72">
-      <c r="A469" s="77"/>
+      <c r="A469" s="91"/>
       <c r="B469" s="59" t="s">
         <v>1295</v>
       </c>
@@ -41134,7 +41207,7 @@
       <c r="Z469" s="39"/>
     </row>
     <row r="470" spans="1:26" ht="60">
-      <c r="A470" s="77"/>
+      <c r="A470" s="91"/>
       <c r="B470" s="59" t="s">
         <v>1298</v>
       </c>
@@ -41168,7 +41241,7 @@
       <c r="Z470" s="39"/>
     </row>
     <row r="471" spans="1:26">
-      <c r="A471" s="77"/>
+      <c r="A471" s="91"/>
       <c r="B471" s="59" t="s">
         <v>1301</v>
       </c>
@@ -41202,7 +41275,7 @@
       <c r="Z471" s="39"/>
     </row>
     <row r="472" spans="1:26" ht="24">
-      <c r="A472" s="77"/>
+      <c r="A472" s="91"/>
       <c r="B472" s="59" t="s">
         <v>1304</v>
       </c>
@@ -41234,7 +41307,7 @@
       <c r="Z472" s="39"/>
     </row>
     <row r="473" spans="1:26" ht="36">
-      <c r="A473" s="77"/>
+      <c r="A473" s="91"/>
       <c r="B473" s="59" t="s">
         <v>1306</v>
       </c>
@@ -41268,7 +41341,7 @@
       <c r="Z473" s="39"/>
     </row>
     <row r="474" spans="1:26" ht="48">
-      <c r="A474" s="77"/>
+      <c r="A474" s="91"/>
       <c r="B474" s="59" t="s">
         <v>1309</v>
       </c>
@@ -41302,7 +41375,7 @@
       <c r="Z474" s="39"/>
     </row>
     <row r="475" spans="1:26" ht="156">
-      <c r="A475" s="77"/>
+      <c r="A475" s="91"/>
       <c r="B475" s="59" t="s">
         <v>1312</v>
       </c>
@@ -41336,7 +41409,7 @@
       <c r="Z475" s="39"/>
     </row>
     <row r="476" spans="1:26" ht="108">
-      <c r="A476" s="77"/>
+      <c r="A476" s="91"/>
       <c r="B476" s="59" t="s">
         <v>1315</v>
       </c>
@@ -41370,7 +41443,7 @@
       <c r="Z476" s="39"/>
     </row>
     <row r="477" spans="1:26" ht="144">
-      <c r="A477" s="77"/>
+      <c r="A477" s="91"/>
       <c r="B477" s="59" t="s">
         <v>124</v>
       </c>
@@ -41404,7 +41477,7 @@
       <c r="Z477" s="39"/>
     </row>
     <row r="478" spans="1:26" ht="180">
-      <c r="A478" s="77"/>
+      <c r="A478" s="91"/>
       <c r="B478" s="59" t="s">
         <v>1320</v>
       </c>
@@ -41438,7 +41511,7 @@
       <c r="Z478" s="39"/>
     </row>
     <row r="479" spans="1:26" ht="144">
-      <c r="A479" s="77"/>
+      <c r="A479" s="91"/>
       <c r="B479" s="59" t="s">
         <v>1323</v>
       </c>
@@ -41472,7 +41545,7 @@
       <c r="Z479" s="39"/>
     </row>
     <row r="480" spans="1:26" ht="228">
-      <c r="A480" s="77"/>
+      <c r="A480" s="91"/>
       <c r="B480" s="59" t="s">
         <v>1326</v>
       </c>
@@ -41506,7 +41579,7 @@
       <c r="Z480" s="39"/>
     </row>
     <row r="481" spans="1:26" ht="108">
-      <c r="A481" s="77"/>
+      <c r="A481" s="91"/>
       <c r="B481" s="59" t="s">
         <v>1329</v>
       </c>
@@ -41540,7 +41613,7 @@
       <c r="Z481" s="39"/>
     </row>
     <row r="482" spans="1:26" ht="252">
-      <c r="A482" s="77"/>
+      <c r="A482" s="91"/>
       <c r="B482" s="59" t="s">
         <v>1332</v>
       </c>
@@ -41574,7 +41647,7 @@
       <c r="Z482" s="39"/>
     </row>
     <row r="483" spans="1:26" ht="204">
-      <c r="A483" s="77"/>
+      <c r="A483" s="91"/>
       <c r="B483" s="59" t="s">
         <v>1335</v>
       </c>
@@ -41608,7 +41681,7 @@
       <c r="Z483" s="39"/>
     </row>
     <row r="484" spans="1:26" ht="180">
-      <c r="A484" s="77"/>
+      <c r="A484" s="91"/>
       <c r="B484" s="59" t="s">
         <v>1338</v>
       </c>
@@ -57155,56 +57228,19 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A409:A421"/>
-    <mergeCell ref="A422:A431"/>
-    <mergeCell ref="A432:A444"/>
-    <mergeCell ref="A351:A355"/>
-    <mergeCell ref="A356:A359"/>
-    <mergeCell ref="A360:A366"/>
-    <mergeCell ref="A367:A373"/>
-    <mergeCell ref="A374:A377"/>
-    <mergeCell ref="A378:A380"/>
-    <mergeCell ref="A381:A383"/>
-    <mergeCell ref="A384:A391"/>
-    <mergeCell ref="A392:A398"/>
-    <mergeCell ref="A399:A400"/>
-    <mergeCell ref="A403:A405"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A25:A43"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A51:A64"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A75:A82"/>
-    <mergeCell ref="A83:A100"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A110:A118"/>
-    <mergeCell ref="A120:A128"/>
-    <mergeCell ref="A129:A136"/>
-    <mergeCell ref="A137:A144"/>
-    <mergeCell ref="A145:A150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A158:A170"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A175:A179"/>
-    <mergeCell ref="A180:A187"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A254:A260"/>
-    <mergeCell ref="A261:A266"/>
-    <mergeCell ref="A267:A272"/>
-    <mergeCell ref="A239:A253"/>
-    <mergeCell ref="A188:A202"/>
-    <mergeCell ref="A203:A215"/>
-    <mergeCell ref="A216:A225"/>
-    <mergeCell ref="G347:G350"/>
-    <mergeCell ref="A273:A282"/>
-    <mergeCell ref="A317:A326"/>
-    <mergeCell ref="G327:G334"/>
-    <mergeCell ref="A226:A234"/>
-    <mergeCell ref="A302:A316"/>
-    <mergeCell ref="A327:A334"/>
+    <mergeCell ref="G360:G361"/>
+    <mergeCell ref="G367:G368"/>
+    <mergeCell ref="G374:G376"/>
+    <mergeCell ref="G445:G455"/>
+    <mergeCell ref="G456:G457"/>
+    <mergeCell ref="G435:G437"/>
+    <mergeCell ref="G438:G444"/>
+    <mergeCell ref="G399:G400"/>
+    <mergeCell ref="G407:G408"/>
+    <mergeCell ref="G409:G413"/>
+    <mergeCell ref="G422:G426"/>
+    <mergeCell ref="G415:G417"/>
+    <mergeCell ref="G433:G434"/>
     <mergeCell ref="A445:A463"/>
     <mergeCell ref="A464:A484"/>
     <mergeCell ref="G216:G225"/>
@@ -57221,19 +57257,56 @@
     <mergeCell ref="A347:A350"/>
     <mergeCell ref="A283:A301"/>
     <mergeCell ref="G341:G346"/>
-    <mergeCell ref="G360:G361"/>
-    <mergeCell ref="G367:G368"/>
-    <mergeCell ref="G374:G376"/>
-    <mergeCell ref="G445:G455"/>
-    <mergeCell ref="G456:G457"/>
-    <mergeCell ref="G435:G437"/>
-    <mergeCell ref="G438:G444"/>
-    <mergeCell ref="G399:G400"/>
-    <mergeCell ref="G407:G408"/>
-    <mergeCell ref="G409:G413"/>
-    <mergeCell ref="G422:G426"/>
-    <mergeCell ref="G415:G417"/>
-    <mergeCell ref="G433:G434"/>
+    <mergeCell ref="G347:G350"/>
+    <mergeCell ref="A273:A282"/>
+    <mergeCell ref="A317:A326"/>
+    <mergeCell ref="G327:G334"/>
+    <mergeCell ref="A226:A234"/>
+    <mergeCell ref="A302:A316"/>
+    <mergeCell ref="A327:A334"/>
+    <mergeCell ref="A180:A187"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="A254:A260"/>
+    <mergeCell ref="A261:A266"/>
+    <mergeCell ref="A267:A272"/>
+    <mergeCell ref="A239:A253"/>
+    <mergeCell ref="A188:A202"/>
+    <mergeCell ref="A203:A215"/>
+    <mergeCell ref="A216:A225"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A158:A170"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A175:A179"/>
+    <mergeCell ref="A110:A118"/>
+    <mergeCell ref="A120:A128"/>
+    <mergeCell ref="A129:A136"/>
+    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="A145:A150"/>
+    <mergeCell ref="A51:A64"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A75:A82"/>
+    <mergeCell ref="A83:A100"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A25:A43"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A409:A421"/>
+    <mergeCell ref="A422:A431"/>
+    <mergeCell ref="A432:A444"/>
+    <mergeCell ref="A351:A355"/>
+    <mergeCell ref="A356:A359"/>
+    <mergeCell ref="A360:A366"/>
+    <mergeCell ref="A367:A373"/>
+    <mergeCell ref="A374:A377"/>
+    <mergeCell ref="A378:A380"/>
+    <mergeCell ref="A381:A383"/>
+    <mergeCell ref="A384:A391"/>
+    <mergeCell ref="A392:A398"/>
+    <mergeCell ref="A399:A400"/>
+    <mergeCell ref="A403:A405"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
